--- a/data/hotels_by_city/Houston/Houston_shard_60.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_60.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="475">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107812-Reviews-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Best-Western-Windsor-Suites.h55709.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1305 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r597437183-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107812</t>
+  </si>
+  <si>
+    <t>597437183</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Our stop was very comfortable it was nice to get away from the truck for an evening. Being able to go for a swim after unloading our truck is something I look forward to. The staff are very accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>bestwesternwindsortx, Hotel Manager at Best Western Windsor Suites, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Our stop was very comfortable it was nice to get away from the truck for an evening. Being able to go for a swim after unloading our truck is something I look forward to. The staff are very accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r573744710-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573744710</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Night Away</t>
+  </si>
+  <si>
+    <t>The Hotel was nice. The only issue is they are redoing the Roads around this Hotel for a couple of more years so getting to it can be tricky if you are not from around that area. you can only go out on a one way street.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>bestwesternwindsortx, Hotel Manager at Best Western Windsor Suites, responded to this reviewResponded April 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2018</t>
+  </si>
+  <si>
+    <t>The Hotel was nice. The only issue is they are redoing the Roads around this Hotel for a couple of more years so getting to it can be tricky if you are not from around that area. you can only go out on a one way street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r560932195-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560932195</t>
+  </si>
+  <si>
+    <t>02/16/2018</t>
+  </si>
+  <si>
+    <t>BEWARE!! DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>We were EXTREMELY DISAPPOINTED that this hotel was right next to a train track and there is NO mention of this on the website. Three trains came through between 2:30am-6:30am blowing their horns each time. No one should EVER have to wake from a dead sleep to this unless they chose to. We unfortunately were not given that choice, because we were not aware of the active train track prior to booking. Had we known, we would have never booked a room at this hotel! Also, this hotel is right next to the highway, as mentioned by another traveler.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r514110857-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>514110857</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Very happy with my stay</t>
+  </si>
+  <si>
+    <t>I was a little concerned since it isn't a 5 star, like I normally stay at, but I was very satisfied with the room and everything. It was very clean, even the carpet. I didn't have to worry about walking around with shoes or socks on.  Will stay there again when I'm back in town.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r513529664-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>513529664</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>it was clean and nice i would stay again when I go to visit my family. close to a lot of restaurants and very close to my family. i would recommend this hotel if you our staying in they cypress area. the only issue a lot of hiway construction</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r503754958-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503754958</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>One Night Stay</t>
+  </si>
+  <si>
+    <t>The room was priced well, the location was hard to get to, service was very good but room had been cleaned and left with wet carpet and closed up which left a smell. I would stay again for business in the area but not for a family vacation.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r488799054-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488799054</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Don't judge a book by it's cover</t>
+  </si>
+  <si>
+    <t>I was hesitant at first while I was reading some previous bad reviews for this hotel. However, the staff was more than welcoming when I was checking in and when I walked into my room I was blown away from how clean and neat it was. The hotel also has free continental breakfast which is really warm and taste very good. Will definitely stay here next time.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r478220467-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478220467</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>Next door to train</t>
+  </si>
+  <si>
+    <t>Train came right by our room and blew its whistle twice during the middle of the night of our stay.  Service was not excellent but room was fairly cheap so I was not shocked about this.  Example-  when I tried to check in, there were clearly lots of rooms available but they said I would have to pay an early check in fee because it was before 3. Also we asked for a crib when we made the reservation and when we checked in and they still had not delivered by 9pm.  When we called then, they said they would call us back.  Finally had to call again and they brought it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Train came right by our room and blew its whistle twice during the middle of the night of our stay.  Service was not excellent but room was fairly cheap so I was not shocked about this.  Example-  when I tried to check in, there were clearly lots of rooms available but they said I would have to pay an early check in fee because it was before 3. Also we asked for a crib when we made the reservation and when we checked in and they still had not delivered by 9pm.  When we called then, they said they would call us back.  Finally had to call again and they brought it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r478409459-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478409459</t>
+  </si>
+  <si>
+    <t>Very nice place to relax</t>
+  </si>
+  <si>
+    <t>I run hot shot loads for my work, I am always looking for a good clean place to stay when I am away from home. Best Western is the best I have stayed in for the price and comfort. Keep up the good work.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r459901623-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459901623</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Best, BW we have stayed at to day</t>
+  </si>
+  <si>
+    <t>Excellent staff. Room very clean. Breakfast good. Internet available with easy access. On arrival, Amanda greeted us and signed us in. Amanda was professional, informative, and customer friendly. Nice greeting after a long day of driving. Great experience.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r437629510-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437629510</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>Good Rooms - Great Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is a good value for the price. The room we were in (109) was very clean with an excellent mattress. It was clean with nice amenities. Wifi was stronger than most and not an issue. It is next to a train track and  once or twice a night the train and horn was quite loud. Our room opened to the outside, if this is a concern please be aware. Not sure if they have rooms with internal doors. There are many nice dining choices within walking distance. </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r431400015-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431400015</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Good overall value</t>
+  </si>
+  <si>
+    <t>Good value for a nights rest, easy in and out with the front door right on the parking lot, a bit old school but it makes it easy to load / unload. Clean and beds are comfortable and check-in desk was very friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>ManagerX1, Manager at Best Western Windsor Suites, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Good value for a nights rest, easy in and out with the front door right on the parking lot, a bit old school but it makes it easy to load / unload. Clean and beds are comfortable and check-in desk was very friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r408082137-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>408082137</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>it was very great hotel</t>
+  </si>
+  <si>
+    <t>very good location with free parking and good service, near to many restaurants staffs are very friendly and cooperative offer microwaves in the room also has laundry service , small summing pool the breakfast is okMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>ManagerX1, Manager at Best Western Windsor Suites, responded to this reviewResponded August 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2016</t>
+  </si>
+  <si>
+    <t>very good location with free parking and good service, near to many restaurants staffs are very friendly and cooperative offer microwaves in the room also has laundry service , small summing pool the breakfast is okMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r406434029-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>406434029</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Nice, friendly staff. Great pool and a hot breakfast. Can't really ask for more. Although it does not have a secure lobby with no outside access, it felt very safe. I traveled with my children and my sister and we never felt like we were in any danger. Even in the big city.MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagerX1, Manager at Best Western Windsor Suites, responded to this reviewResponded August 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2016</t>
+  </si>
+  <si>
+    <t>Nice, friendly staff. Great pool and a hot breakfast. Can't really ask for more. Although it does not have a secure lobby with no outside access, it felt very safe. I traveled with my children and my sister and we never felt like we were in any danger. Even in the big city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r400616902-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>400616902</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Clean and well priced rooms</t>
+  </si>
+  <si>
+    <t>The rooms were clean and the staff let me check-in and check-out late during both my stays. The staff I dealt with were all nice and pleasant to deal with. I didn't take any pictures of the front of the hotel but it has changed from the displayed photo and had a makeover. I recommend this hotel for business travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>ManagerX1, Front Office Manager at Best Western Windsor Suites, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>The rooms were clean and the staff let me check-in and check-out late during both my stays. The staff I dealt with were all nice and pleasant to deal with. I didn't take any pictures of the front of the hotel but it has changed from the displayed photo and had a makeover. I recommend this hotel for business travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r382063424-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382063424</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Great Location, Great Service, Great Price</t>
+  </si>
+  <si>
+    <t>It is my favorite hotel when I come to Cypress, Texas. Very well located, with easy access to two freeways and shopping centers, and the price is always right! The staff is super nice and helpful. It is a pleasure to stay here. You actually feel like you are home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>ManagerX1, Front Desk Manager at Best Western Windsor Suites, responded to this reviewResponded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2016</t>
+  </si>
+  <si>
+    <t>It is my favorite hotel when I come to Cypress, Texas. Very well located, with easy access to two freeways and shopping centers, and the price is always right! The staff is super nice and helpful. It is a pleasure to stay here. You actually feel like you are home away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r378101459-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378101459</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Average place - excellent hosts!</t>
+  </si>
+  <si>
+    <t>This is the second time we've stayed here in two years.  Here are the pros and cons:What we liked ---1.  The staff was very friendly, courteous and helpful!  Very nice people.2.  Location close to highways.3.  Plenty of great restaurants within an easy walk.4.  Reasonable rooms, amenities, and price.What we don't like ---1.  Breakfast is very so-so.2.  We really don't like a room that opens to the outside.All-in-all, not a bad place.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>ManagerX1, Front Desk Manager at Best Western Windsor Suites, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>This is the second time we've stayed here in two years.  Here are the pros and cons:What we liked ---1.  The staff was very friendly, courteous and helpful!  Very nice people.2.  Location close to highways.3.  Plenty of great restaurants within an easy walk.4.  Reasonable rooms, amenities, and price.What we don't like ---1.  Breakfast is very so-so.2.  We really don't like a room that opens to the outside.All-in-all, not a bad place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r373254026-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373254026</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>A second home</t>
+  </si>
+  <si>
+    <t>I feel relaxed and at peace at Best Western Windsor Suites. I have been coming to the same hotel since 2013 and I feel satisfied with the services, location and the security aspect of the area. to crown it all it is a quite area with the exception when a train passes.MoreShow less</t>
+  </si>
+  <si>
+    <t>I feel relaxed and at peace at Best Western Windsor Suites. I have been coming to the same hotel since 2013 and I feel satisfied with the services, location and the security aspect of the area. to crown it all it is a quite area with the exception when a train passes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r364749722-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364749722</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>Beds too stiff - otherwise decent</t>
+  </si>
+  <si>
+    <t>We stay at many best western properties.  This one is decent with the amenities you want - fridge, micro, good internet, decent breakfast, etc.  Only real complaint -- and it's a biggy -- is the beds are way too stiff.  Can't get a good night sleep... too bad.  Should consider adding memory foam matress pads and all would be well.MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagerX1, Front Desk Manager at Best Western Windsor Suites, responded to this reviewResponded April 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2016</t>
+  </si>
+  <si>
+    <t>We stay at many best western properties.  This one is decent with the amenities you want - fridge, micro, good internet, decent breakfast, etc.  Only real complaint -- and it's a biggy -- is the beds are way too stiff.  Can't get a good night sleep... too bad.  Should consider adding memory foam matress pads and all would be well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r360263110-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360263110</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>All services are extremely good. staff are looking professional, high internet speed, satisfied with break fast. maintains cleanliness. good looking fitness center and swimming pool. well furnished rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>ManagerX1, Front Desk Manager at Best Western Windsor Suites, responded to this reviewResponded April 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2016</t>
+  </si>
+  <si>
+    <t>All services are extremely good. staff are looking professional, high internet speed, satisfied with break fast. maintains cleanliness. good looking fitness center and swimming pool. well furnished rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r360262699-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360262699</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Very pleasant interior and exterior. Great location - lots of restaurants within walking distance. Staff was friendly and courteous.  Reported problem with room and it was taken care of in a timely manner.  Very pleasant interior and exterior. Great location - lots of restaurants within walking distance. Staff was friendly and courteous.  Reported problem with room and it was taken care of in a timely manner.MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagerX1, Front Desk Manager at Best Western Windsor Suites, responded to this reviewResponded March 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2016</t>
+  </si>
+  <si>
+    <t>Very pleasant interior and exterior. Great location - lots of restaurants within walking distance. Staff was friendly and courteous.  Reported problem with room and it was taken care of in a timely manner.  Very pleasant interior and exterior. Great location - lots of restaurants within walking distance. Staff was friendly and courteous.  Reported problem with room and it was taken care of in a timely manner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r348084016-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348084016</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>we had an enjojable stay at b/w winsor in Houston. at both ckeck-in and check out the staff was very pleasant and happy.the breakfast was fairly good as usual. the breakfast worker was  very pleasant and caring. the hotel was clean both inside and out.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r343917027-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343917027</t>
+  </si>
+  <si>
+    <t>01/30/2016</t>
+  </si>
+  <si>
+    <t>Worst Bestwestern I`ve stayed in</t>
+  </si>
+  <si>
+    <t>The prices are outrageous, their Breakfast is like ordering at a convenience store. Rude staff, charges me $106.00 on my card but hands me a bill for $65.00   I challenged her then with argument she changes bill to $106.00. They have a WAKE UP Train come by at about 3:30am.....</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r339105195-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339105195</t>
+  </si>
+  <si>
+    <t>01/11/2016</t>
+  </si>
+  <si>
+    <t>THE ROOM WAS OK</t>
+  </si>
+  <si>
+    <t>If you want to listen to a train come by go ahead and go to this hotel.   We had one come by at 3am woke us up tried to go back to sleep and then another one at 5am  gave up after that - Also had plumbing issues</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r331349459-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331349459</t>
+  </si>
+  <si>
+    <t>12/07/2015</t>
+  </si>
+  <si>
+    <t>Classy Lady</t>
+  </si>
+  <si>
+    <t>This Hotel was Great!!! clean and nice atmosphere (traffic sound was not a issue even though it was off a major freeway) , Room was very relaxing, Front Desk was helpful with "everything". I plan on staying at "other" locations within this establishment - I was a very SATISFIED CUSTOMER!!!</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r324056898-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324056898</t>
+  </si>
+  <si>
+    <t>11/02/2015</t>
+  </si>
+  <si>
+    <t>NOT a perfect location in Houston</t>
+  </si>
+  <si>
+    <t>This is in a good locations for restaurants but hard to get to with road construction.  Pool was not accessible as locked all the time.  Had to request it to be unlocked!!!!!  Looks like been updated but still looks 'tired' from outside.  Breakfast just average.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r322172190-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322172190</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>value for money</t>
+  </si>
+  <si>
+    <t>mr alex is manager over there and a nice cooperative guy.i have been to 12 days.it is on high way 6.thats the plus point.no need to go inside the streets.one draw back is it is near railway track so odd numbers room get some noise.staff is very friendly n cleaniness is good.breakfast is also good.please check for smoking n non smoking rooms before booking.waffle,scrumblled egg,potatoes,fruits......</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r316478328-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316478328</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>frustration huge</t>
+  </si>
+  <si>
+    <t>needed to stay at a location with wifi access...theirs was strong enough to show up but not enough to connect. hotel next door had stronger signal than the one i was paying for...unacceptable in this day and age. i was truly shocked that i had needed such a simple service which was offered but not non existent.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r316294284-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316294284</t>
+  </si>
+  <si>
+    <t>10/04/2015</t>
+  </si>
+  <si>
+    <t>Head to lay down</t>
+  </si>
+  <si>
+    <t>If you had to have a place to lay your head, this is it.  Do not count on getting a good breakfast though. Hopefully they get my comment from my stay and make improvements to the matrasses in the rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r314975401-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>314975401</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>Difficult start after a long flight it took us three hours to find the hotel</t>
+  </si>
+  <si>
+    <t>Arrived very late at night, very tired and lost. For some reason we were given a smokers room with no explanation. No mention that we could have a complementary breakfast up to 9am, too tired to complain that night, we were however able to move rooms the next day.Discovered that the freight trains pass by the hotel in the night and blow their horns as they go by wakening us every night barring Sunday.The view is of the freeway, and each day we got a little lost going back to the hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r295527177-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295527177</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>STay at bestwestern Houston, TX</t>
+  </si>
+  <si>
+    <t>It was a good experience staying there. Staff is good and helpful. The rent should be less but I think its good and economical place to spend a night. Breakfast good. This hotel was close to my business place 3 miles, so, I was OK.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r283051071-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283051071</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Great price for great quality!</t>
+  </si>
+  <si>
+    <t>The kids and I had come down to scout for apartments.  The running around was grueling, so glad we had comfortable beds to fall into, and a place to unwind!  Don't know how we would have been able to drive six hours back to Tyler that night!  Thanks to the staff of Best Western at Hwy 6 N and Hwy 290 in Houston!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r281281509-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281281509</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Terrible experience</t>
+  </si>
+  <si>
+    <t>No coffee from Sun thru Tues in hotel.  No grab bars in tub. Room not cleaned. No hot breakfast food after 8:30 (breakfast served til 9). Avoid at all costs.  Very slow internet connection. Not enough parking.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r274552321-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274552321</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Very Unsafe</t>
+  </si>
+  <si>
+    <t>I'm staying at this hotel while writing this review but I'm seriously considering moving out. The main reason is that I had 2 incidents within the last week when coming back to the hotel I found the door to my room not closed. Not wide open but not closed either, so that anyone can push it and get inside without a key. Coupled with the doors opening directly to the street motel style this is incredibly unsafe. The first time it happened I had a long conversation with the manager Alex. He promised to talk to the maids and check the cameras to see exactly what happened (did somebody break in or did the maid leave the door open?) Needless to say, I never heard from him again. And today I found my door not closed again. Nothing seemed to disappear but now I have to take all my valuables with me and WHY DO I EVEN HAVE TO WORRY ABOUT THIS? So if you don't care about safety please go ahead and book a room here.Oh, and as an added bonus I had to replace the sheets as they had some bright yellow spots on them when I got the room. Some of my towels and pillow cases were also dirty.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I'm staying at this hotel while writing this review but I'm seriously considering moving out. The main reason is that I had 2 incidents within the last week when coming back to the hotel I found the door to my room not closed. Not wide open but not closed either, so that anyone can push it and get inside without a key. Coupled with the doors opening directly to the street motel style this is incredibly unsafe. The first time it happened I had a long conversation with the manager Alex. He promised to talk to the maids and check the cameras to see exactly what happened (did somebody break in or did the maid leave the door open?) Needless to say, I never heard from him again. And today I found my door not closed again. Nothing seemed to disappear but now I have to take all my valuables with me and WHY DO I EVEN HAVE TO WORRY ABOUT THIS? So if you don't care about safety please go ahead and book a room here.Oh, and as an added bonus I had to replace the sheets as they had some bright yellow spots on them when I got the room. Some of my towels and pillow cases were also dirty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r271971076-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271971076</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t>Simply delightful</t>
+  </si>
+  <si>
+    <t>Warm, amiable front desk staff; cozy rooms, calm atmosphere; neat and tidy environment; convenient location; great complimentary breakfast; affordable prices.....I just keep coming back!I find the provision of pressing iron and table, microwave, and fridge particularly useful for my stay. the rooms are lavishly spacious. And there's continuous improvement in furnitures, rugs etc. over the months I've stayed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r267471962-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267471962</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Room was up to date, clean and bed was comfy. Staff was excellent and recommended a great place to eat. Parking was well lit and security cameras everywhere for safety.Great overall experience. That's why we are Best Western customers.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r264216018-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>264216018</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>CLEAN BUT NEEDS SOME TLC</t>
+  </si>
+  <si>
+    <t>This was my third stay at the BW Windsor.  The front desk staff was always courteous as well as helpful and accommodating.  While this is an older property, the room was comfortable and the staff did a wonderful job cleaning the room.  The breakfast bar could use a little more in the way of selections; the staff was always making sure that the bar was stocked.  One morning there was no newspaper delivered which I found curious.  Also, there were n menus available at the front desk for restaurants that delivered to the hotel.  The outside areas could use a good cleaning; as an older person, I am a bit wary of rooms on the outside of the breezeways.  Coming back after dark was a little disconcerting...going from the car to my second floor room.  I understand that many of the rooms are booked by contractors performing long term jobs, but always felt as little uncomfortable with all of the drinking and smoking in the parking lot.  All in all, this was a good value and I had a clean room.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>BestWesternWindsor, Manager at Best Western Windsor Suites, responded to this reviewResponded April 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2015</t>
+  </si>
+  <si>
+    <t>This was my third stay at the BW Windsor.  The front desk staff was always courteous as well as helpful and accommodating.  While this is an older property, the room was comfortable and the staff did a wonderful job cleaning the room.  The breakfast bar could use a little more in the way of selections; the staff was always making sure that the bar was stocked.  One morning there was no newspaper delivered which I found curious.  Also, there were n menus available at the front desk for restaurants that delivered to the hotel.  The outside areas could use a good cleaning; as an older person, I am a bit wary of rooms on the outside of the breezeways.  Coming back after dark was a little disconcerting...going from the car to my second floor room.  I understand that many of the rooms are booked by contractors performing long term jobs, but always felt as little uncomfortable with all of the drinking and smoking in the parking lot.  All in all, this was a good value and I had a clean room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r261792625-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261792625</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Excellent memories were made here!</t>
+  </si>
+  <si>
+    <t>HIGHS:Rajul is beautiful, very profressional and courteous, and that smile of hers is radiant.  She is also trustworthy, having gone out of her way to return a valuable piece of personal property that I had forgotten in my room.Spacious room with separate lounge area, a nice comfy bed, and amenities like a microwave and HBO.LOWS:I've been there twice in the last month, and in neither instance has the room's refrigerator worked.The room is a bit pricier than I usually like, but not prohibitively so.No elevator to the upper floor--a concern when you have heavy baggage.MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWesternWindsor, Manager at Best Western Windsor Suites, responded to this reviewResponded March 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2015</t>
+  </si>
+  <si>
+    <t>HIGHS:Rajul is beautiful, very profressional and courteous, and that smile of hers is radiant.  She is also trustworthy, having gone out of her way to return a valuable piece of personal property that I had forgotten in my room.Spacious room with separate lounge area, a nice comfy bed, and amenities like a microwave and HBO.LOWS:I've been there twice in the last month, and in neither instance has the room's refrigerator worked.The room is a bit pricier than I usually like, but not prohibitively so.No elevator to the upper floor--a concern when you have heavy baggage.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r260988918-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260988918</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Very good price for the stay</t>
+  </si>
+  <si>
+    <t>Nice hotel, good breakfast, even had kolaches! I've never seen kolaches on a continental breakfast :) Bed was a bit hard for my taste, but everything else was great. I was surprised how nice the decor was in the lobby and rooms. For a BW it was very nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWesternWindsor, Manager at Best Western Windsor Suites, responded to this reviewResponded March 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, good breakfast, even had kolaches! I've never seen kolaches on a continental breakfast :) Bed was a bit hard for my taste, but everything else was great. I was surprised how nice the decor was in the lobby and rooms. For a BW it was very nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r249126937-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249126937</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>Compelled to warn future travellers</t>
+  </si>
+  <si>
+    <t>We requested a smoking room, so to be fair we expected to smell smoke, but the stench was overwhelming. We arrived late and were tired so we just accepted it and went to bed. We got the real eyeopener in the morning.  There was a 2' cobweb above window valance, burn holes in the flimsy getto blankets, heavy dust on the wooden coat hangers and food ? splatters on wall behind the bathroom sink. We were truly in disbelief at the extent of neglect, especially considering the nice location and that it was a Best Western. Upon complaining to management at checkout, we were told the room was cleaned day before.  After arguing with management, they gave us half off the room.  Needless to say we cannot possibly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>BestWesternWindsor, Manager at Best Western Windsor Suites, responded to this reviewResponded January 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2015</t>
+  </si>
+  <si>
+    <t>We requested a smoking room, so to be fair we expected to smell smoke, but the stench was overwhelming. We arrived late and were tired so we just accepted it and went to bed. We got the real eyeopener in the morning.  There was a 2' cobweb above window valance, burn holes in the flimsy getto blankets, heavy dust on the wooden coat hangers and food ? splatters on wall behind the bathroom sink. We were truly in disbelief at the extent of neglect, especially considering the nice location and that it was a Best Western. Upon complaining to management at checkout, we were told the room was cleaned day before.  After arguing with management, they gave us half off the room.  Needless to say we cannot possibly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r239426979-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239426979</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Needs a little help</t>
+  </si>
+  <si>
+    <t>Disappointing breakfast and worn out sheets. The ads look great, but must have been taken long ago. Great afternoon desk clerk very friendly and helpful. Couch had a smell like moldy or similar to a wet dog.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r238288712-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238288712</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>best western</t>
+  </si>
+  <si>
+    <t>This is a real good hotel to stay in and we enjoyed our stay but the breakfast choice  is not so good. the rooms were really clean and the rest room was also good. I will reccomend best western to my family and friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r231715550-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231715550</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>We stay here about 8 nights a year and have always been well pleased with the service and value received.  The rooms are clean, and it is located close to good shopping areas as well as easy access on and off of highway 290. Any problems are minimal and always corrected promptly.  We recommend this hotel.  Note, we stay on the east side as a train comes through near the west side about 8:00 AM every day</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r231749637-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231749637</t>
+  </si>
+  <si>
+    <t>PERFECT LOCATION + PRICE</t>
+  </si>
+  <si>
+    <t>This is a wonderful hotel, near an important freeway and a main road. It is very clean, almost new, and the staff is very friendly, helpful and cooperative. There are many shopping centers nearby, restaurants, gas stations, etc. The area is quiet and the surroundings nice, though under construction (all of Houston). I recommend it highly and will definitely return to it on my next business trip.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r213566269-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>213566269</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>had a doctor appointment</t>
+  </si>
+  <si>
+    <t>This was a very nice motel. Clean . We would stay here again if I have to go back to this Oncologist. It was very close the the Doctors office. There was a little construction around the motel but still did not have any trouble getting in and out. We would recommend this motel to all travelers.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r206738786-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206738786</t>
+  </si>
+  <si>
+    <t>05/23/2014</t>
+  </si>
+  <si>
+    <t>Good hotel for the price</t>
+  </si>
+  <si>
+    <t>Its a decent location. Rooms are ok. I mean for the price I couldn't expect more. Service was great. Bathrooms are decent as well... Its close to the Highway and therfore have good access to goto many places in Houston.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r205626560-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205626560</t>
+  </si>
+  <si>
+    <t>05/14/2014</t>
+  </si>
+  <si>
+    <t>Decent Bang for Your Buck!</t>
+  </si>
+  <si>
+    <t>Our Room was quite spacious, clean and well appointed. Bed was great! Work out room Equipment was is various stages of disrepair. Front Desk Personnel was rude @ Best. An attitude adjustment would work wonders.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r203382567-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203382567</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>Not what I was expecting</t>
+  </si>
+  <si>
+    <t>I typically get a 3 star or higher on Priceline, but this time I was very disappointed.  They rated this hotel as a 3 star, but would put it at a lower 2.  The room was clean, and the internet worked great.  We paid almost 90/night for this place.  The pictured on the hotel website and the priceline website both stated and showed pics of a hot tub.  Even the hotel room brochure showed a hottub, but no hottub whatsoever.  The owner apparently concreted the hot tub over for a water fall that did not even work/was turned on.  Non of the Tv's channels were HD.  They only provided a shampoo/conditioner all in one.  Also it is very close to train tracks, and all night almost on the hour you would hear the train blaring its horn blasting you out of your sleep.  
+There is a lot of restaurants right next door though.  You have probably about 10 different choices right there.  Easy access on and off the highway, which can be bad or good.  
+I did speak the Best Western concerning my unhappiness with the hotel, and they offered us a room with a Jacuzzi tub, or I could cancel the rest of the reservation.  I will say that it was nice of them to do that.
+Cons: Not a 3star to my expectations, loud train, not a lot of parking on one side, no hot tub like advertised....I typically get a 3 star or higher on Priceline, but this time I was very disappointed.  They rated this hotel as a 3 star, but would put it at a lower 2.  The room was clean, and the internet worked great.  We paid almost 90/night for this place.  The pictured on the hotel website and the priceline website both stated and showed pics of a hot tub.  Even the hotel room brochure showed a hottub, but no hottub whatsoever.  The owner apparently concreted the hot tub over for a water fall that did not even work/was turned on.  Non of the Tv's channels were HD.  They only provided a shampoo/conditioner all in one.  Also it is very close to train tracks, and all night almost on the hour you would hear the train blaring its horn blasting you out of your sleep.  There is a lot of restaurants right next door though.  You have probably about 10 different choices right there.  Easy access on and off the highway, which can be bad or good.  I did speak the Best Western concerning my unhappiness with the hotel, and they offered us a room with a Jacuzzi tub, or I could cancel the rest of the reservation.  I will say that it was nice of them to do that.Cons: Not a 3star to my expectations, loud train, not a lot of parking on one side, no hot tub like advertised.Pros: Lots of great restaurants right next door, clean room.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I typically get a 3 star or higher on Priceline, but this time I was very disappointed.  They rated this hotel as a 3 star, but would put it at a lower 2.  The room was clean, and the internet worked great.  We paid almost 90/night for this place.  The pictured on the hotel website and the priceline website both stated and showed pics of a hot tub.  Even the hotel room brochure showed a hottub, but no hottub whatsoever.  The owner apparently concreted the hot tub over for a water fall that did not even work/was turned on.  Non of the Tv's channels were HD.  They only provided a shampoo/conditioner all in one.  Also it is very close to train tracks, and all night almost on the hour you would hear the train blaring its horn blasting you out of your sleep.  
+There is a lot of restaurants right next door though.  You have probably about 10 different choices right there.  Easy access on and off the highway, which can be bad or good.  
+I did speak the Best Western concerning my unhappiness with the hotel, and they offered us a room with a Jacuzzi tub, or I could cancel the rest of the reservation.  I will say that it was nice of them to do that.
+Cons: Not a 3star to my expectations, loud train, not a lot of parking on one side, no hot tub like advertised....I typically get a 3 star or higher on Priceline, but this time I was very disappointed.  They rated this hotel as a 3 star, but would put it at a lower 2.  The room was clean, and the internet worked great.  We paid almost 90/night for this place.  The pictured on the hotel website and the priceline website both stated and showed pics of a hot tub.  Even the hotel room brochure showed a hottub, but no hottub whatsoever.  The owner apparently concreted the hot tub over for a water fall that did not even work/was turned on.  Non of the Tv's channels were HD.  They only provided a shampoo/conditioner all in one.  Also it is very close to train tracks, and all night almost on the hour you would hear the train blaring its horn blasting you out of your sleep.  There is a lot of restaurants right next door though.  You have probably about 10 different choices right there.  Easy access on and off the highway, which can be bad or good.  I did speak the Best Western concerning my unhappiness with the hotel, and they offered us a room with a Jacuzzi tub, or I could cancel the rest of the reservation.  I will say that it was nice of them to do that.Cons: Not a 3star to my expectations, loud train, not a lot of parking on one side, no hot tub like advertised.Pros: Lots of great restaurants right next door, clean room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r199422820-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199422820</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Fine room / so-so hotel</t>
+  </si>
+  <si>
+    <t>When you see the word "Windsor", it speaks of royalty.  This hotel doesn't measure yup to that, of course.  It's one of those with outside doors.  It's also right next to Rt. 6 and across from the RR tracks.  It's certainly not a bad place to stay, but just average.  Here's what we liked:1.  The room and amenities in it were fine.2.  The room was clean and spacious, with lots of various channels available (even though we didn't watch much TV).3.  Breakfast was OK.  At least there was cereal that wasn't just the "kiddie" stuff.  Hot "eggs", too.  There was fruit and yogurt.4.  Check-in folks were friendly and helpful.5.  Lots of great restaurants in the immediate vicinity.What we didn't like:1.  We do not like rooms that open to the outside.  If there's bad weather (wind, etc.), it blows right in when you open the door.  Furthermore, we don't think they are as secure as a hotel with interior passageways.2.  This hotel seems to be frequented by workmen on various jobs in the areas.  Lots of work pick-up trucks outside.  Nothing wrong with that, or course, except when they start their diesel engines and let them idle.....3.  The passageways aren't that clean.  This is expected, of course, since their open to the wind blowing stuff in on the floors.An OK place.  Nothing bad, just average.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>When you see the word "Windsor", it speaks of royalty.  This hotel doesn't measure yup to that, of course.  It's one of those with outside doors.  It's also right next to Rt. 6 and across from the RR tracks.  It's certainly not a bad place to stay, but just average.  Here's what we liked:1.  The room and amenities in it were fine.2.  The room was clean and spacious, with lots of various channels available (even though we didn't watch much TV).3.  Breakfast was OK.  At least there was cereal that wasn't just the "kiddie" stuff.  Hot "eggs", too.  There was fruit and yogurt.4.  Check-in folks were friendly and helpful.5.  Lots of great restaurants in the immediate vicinity.What we didn't like:1.  We do not like rooms that open to the outside.  If there's bad weather (wind, etc.), it blows right in when you open the door.  Furthermore, we don't think they are as secure as a hotel with interior passageways.2.  This hotel seems to be frequented by workmen on various jobs in the areas.  Lots of work pick-up trucks outside.  Nothing wrong with that, or course, except when they start their diesel engines and let them idle.....3.  The passageways aren't that clean.  This is expected, of course, since their open to the wind blowing stuff in on the floors.An OK place.  Nothing bad, just average.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r197344592-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197344592</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>The staff was excellent, The rooms were clean and updated. The beds were very comfortable. We really enjoyed our stay here and will stay again. I recommend this BestWestern if you are in the area, and the price was right too!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r185408309-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185408309</t>
+  </si>
+  <si>
+    <t>11/21/2013</t>
+  </si>
+  <si>
+    <t>Close to kids</t>
+  </si>
+  <si>
+    <t>I moved to this location from the WestChase location,  to be closer to my kids. Huge mistake. First the cleaning crew kept coming into room by "mistake" three times in less than an hour. The room had issues. Hole in door, badly repaired, refrigerator barely worked and the microwave was dirty. There is a train track and a train with whistles early on week day mornings. And on the last day, cable "stopped" working at around midnight. And was never fully returned. Was this to get people to leave earlier? Possibly,  as this also occurred the last time I stayed at this location. And beware of the stop signs near hotel. Accidents galore. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I moved to this location from the WestChase location,  to be closer to my kids. Huge mistake. First the cleaning crew kept coming into room by "mistake" three times in less than an hour. The room had issues. Hole in door, badly repaired, refrigerator barely worked and the microwave was dirty. There is a train track and a train with whistles early on week day mornings. And on the last day, cable "stopped" working at around midnight. And was never fully returned. Was this to get people to leave earlier? Possibly,  as this also occurred the last time I stayed at this location. And beware of the stop signs near hotel. Accidents galore. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r171135256-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171135256</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>Best Western Windsor Suite</t>
+  </si>
+  <si>
+    <t>This Best Western is located in a very convenient location at North West side of Houston, Texas.  The Hotel is nicely decorated and very clean and Staff are very courteous and helpful.  Breakfast is satisfactory and it's better than most other continental breakfast offered by hotels.  Free internet and free parking are very handy.  I highly recommend this Best Western Windsor Suite.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r170082208-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170082208</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Nice choice</t>
+  </si>
+  <si>
+    <t>Nice place to stay, staff is nice, watch the breakfast stuff, sometimes the hot items are still cold.  All in all a decent place to stay.    Manager was not around when the building next door burned down and I had damage to my vehicle.  But rest of staff was as helpful as they could be.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r163861768-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163861768</t>
+  </si>
+  <si>
+    <t>06/13/2013</t>
+  </si>
+  <si>
+    <t>Nice room, Noisy hotel.</t>
+  </si>
+  <si>
+    <t>My room was nice - better than expected for the price.  But I was on the side facing the train tracks and got NO sleep.  The train goes by honking several times a night.  If you're a light sleeper stay away.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r155321099-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155321099</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>Never, Ever Again!!</t>
+  </si>
+  <si>
+    <t>The room was unkept, bathroom was just plain GROSS!! If you were brave enough to sit on couch you fell through the cushions to the floor!!  There are railroad tracks almost right in the parking lot and the trains blow their whistles all night!!  After staying there, they sent me multiple requests for completing their survey, I finally did and was honest but not just mean..The very next morning they were calling my house at 7:20 in the morning to discuss my review...Are you serious my only day off and the phone call before 8:00 am...wow....Run, Run from this hotel as fast as possible</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r154975938-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154975938</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Could not sleep - Choo Choo</t>
+  </si>
+  <si>
+    <t>If you are looking for a place to rest and you're a light sleeper like I am, this is not the place to be.   Located right next to railroad tracks!  About 2 to 3 trains pass the hotel between 2 am and 6 am and the conductors lay on the horn and they are loud.  Needless to say this noise woke me up!  Very frustrated and tired!  Could not sleep like I wanted to.  So if you think you'll be bother by loud noise like I was, this is not the place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r151575125-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151575125</t>
+  </si>
+  <si>
+    <t>02/06/2013</t>
+  </si>
+  <si>
+    <t>Great Value, Clean Rooms, Good Service!!</t>
+  </si>
+  <si>
+    <t>I was looking for a place to stay while visiting my dad  in Houston.  The price was excellent compared to the other hotels that I checked out in the area. I was not thrilled with the location at first, as It is not easy to access off of Hwy. 6.  Once I found my way around, it turned out not to be a big issue.  The rooms were very clean and  the staff was pleasant.  Overall, I was pleased with my decision to stay three nights here as opposed to the higher priced hotels that I checked out  in the area.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r133879799-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133879799</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>Just the basics....</t>
+  </si>
+  <si>
+    <t>Stayed here 1 night in June. It was close to home and as our AC was out and temps were over 100 we had to spend the night in a hotel. The property used to be much nicer but now the exterior is run down. Crumbling and missing concrete fencing all around the property, dead shrubs, etc. A minimal investment could really spruce up the exterior. Room interior was just ok. It too is overdue for an upgrade. Tired looking carpet, bathroomarea  showing a lot of wear. AC unit was difficult to control for comfort. Sometimes it ran too long and sometimes not long enough to keep it cool, probably a thermostat issue that needs to be addressed. Toiletries are very basic. On the upside the front desk staff was efficient and friendly. The morning breakfast was unappealing. Instant coffee machine, the usual thawed out frozen pastries and some really unappetizing looking frozen omlette looking things. There are a number of close restaurants that are within walking distance, (Ihop, Chili's, Chuy's, Mamacitas, Texas Roadhouse, Starbucks, Chipotle, Applebee's and others. Property is about 1 block off of Highway 290 and Highway 6.Do not plan on returning here again and would not recommend to friends until this place is upgraded. The rate was good, about $80 with AAA rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Stayed here 1 night in June. It was close to home and as our AC was out and temps were over 100 we had to spend the night in a hotel. The property used to be much nicer but now the exterior is run down. Crumbling and missing concrete fencing all around the property, dead shrubs, etc. A minimal investment could really spruce up the exterior. Room interior was just ok. It too is overdue for an upgrade. Tired looking carpet, bathroomarea  showing a lot of wear. AC unit was difficult to control for comfort. Sometimes it ran too long and sometimes not long enough to keep it cool, probably a thermostat issue that needs to be addressed. Toiletries are very basic. On the upside the front desk staff was efficient and friendly. The morning breakfast was unappealing. Instant coffee machine, the usual thawed out frozen pastries and some really unappetizing looking frozen omlette looking things. There are a number of close restaurants that are within walking distance, (Ihop, Chili's, Chuy's, Mamacitas, Texas Roadhouse, Starbucks, Chipotle, Applebee's and others. Property is about 1 block off of Highway 290 and Highway 6.Do not plan on returning here again and would not recommend to friends until this place is upgraded. The rate was good, about $80 with AAA rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r133217245-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133217245</t>
+  </si>
+  <si>
+    <t>07/01/2012</t>
+  </si>
+  <si>
+    <t>Less than satisfactory</t>
+  </si>
+  <si>
+    <t>We stayed in the Jacuzzi suite.  The first room they gave us had cracks deep enough the water was slipping out in the Jacuzzi tub.  The shampoo and soap shelf was torn from the wall, and we were less than happy.  I requested a different room (because when you make internet reservations no refund).  We were given a key to a new room.  The Jacuzzi tub was not cracked, so we moved all our stuff into the new room.  We turned on the a/c and left to find dinner.  When we came back, the room still wasn’t cool, the stuff we put into the refrigerator was room temperature, and the air conditioner was very loud.  After defrosting the refrigerator and fiddling with the a/c a little we got everything working again, but the a/c was still very loud.  Additionally the room was not as clean as you’d expect, and I just felt the total experience was very poor as a customer.  For the over $100 per night price tag, it was simply ridiculous.  I won’t be staying with Best Western again anytime soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed in the Jacuzzi suite.  The first room they gave us had cracks deep enough the water was slipping out in the Jacuzzi tub.  The shampoo and soap shelf was torn from the wall, and we were less than happy.  I requested a different room (because when you make internet reservations no refund).  We were given a key to a new room.  The Jacuzzi tub was not cracked, so we moved all our stuff into the new room.  We turned on the a/c and left to find dinner.  When we came back, the room still wasn’t cool, the stuff we put into the refrigerator was room temperature, and the air conditioner was very loud.  After defrosting the refrigerator and fiddling with the a/c a little we got everything working again, but the a/c was still very loud.  Additionally the room was not as clean as you’d expect, and I just felt the total experience was very poor as a customer.  For the over $100 per night price tag, it was simply ridiculous.  I won’t be staying with Best Western again anytime soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r131764781-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131764781</t>
+  </si>
+  <si>
+    <t>06/11/2012</t>
+  </si>
+  <si>
+    <t>Never will come back!</t>
+  </si>
+  <si>
+    <t>First of all the location sucks! It right by a freeway and railroads. All you hear is chooo chooo! All night! I came with my wife and kids, and we found this hotel online. The rooms look really nice online but thats all a joke. My microwave was not working and the toliet was running all night. The TV sucked! Now days its a ordinary thing to have flat screen tv's in hotel rooms. My room had a old box tv. The A/C in my room was making alot of noise. The next day I went to have breakfast which was decent, but I have seen better in other Best Westerns. The lobby was nice, and modern. On the other hand the staff was rude! The owners wife if I can recall, Rita was very rude. I told her about the rooms probelms and then I told her about the televisons and how they should change the outdated sets. She just went off on me telling me its not my buisness to tell her what to do. I was like really! I checked out the next day, and told myself im never coming back. I do NOT recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>First of all the location sucks! It right by a freeway and railroads. All you hear is chooo chooo! All night! I came with my wife and kids, and we found this hotel online. The rooms look really nice online but thats all a joke. My microwave was not working and the toliet was running all night. The TV sucked! Now days its a ordinary thing to have flat screen tv's in hotel rooms. My room had a old box tv. The A/C in my room was making alot of noise. The next day I went to have breakfast which was decent, but I have seen better in other Best Westerns. The lobby was nice, and modern. On the other hand the staff was rude! The owners wife if I can recall, Rita was very rude. I told her about the rooms probelms and then I told her about the televisons and how they should change the outdated sets. She just went off on me telling me its not my buisness to tell her what to do. I was like really! I checked out the next day, and told myself im never coming back. I do NOT recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r116077284-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116077284</t>
+  </si>
+  <si>
+    <t>07/31/2011</t>
+  </si>
+  <si>
+    <t>Well recommended by Trip Advisor Member</t>
+  </si>
+  <si>
+    <t>This  very convenient Motel-type Hotel was recommended to us by another Trip Advisor member for my twin Grandsons' Graduation and we could not have been more pleased.Large room with king bed, full bath/shower, full fridge and microwave Good breakfast, excellent pool[part in shade] and Launderette Several  restaurants on site. Might be bit near the main road for some, but we did not find this a great problem because of the convenience  of being only a couple of miles  from my son's" full house"  in Copperlakes. Plannning return visit here in 2 years time for my Grand-daughter's Graduation.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r115220959-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115220959</t>
+  </si>
+  <si>
+    <t>07/10/2011</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>Upon arrival at hotel, front desk clerk was agreeing with a temporary "resident" and bashing the management of the hotel.  This should have been my first clue.  There are no elevators and all doors open to outside.  Asked for 1st floor room and finally, after much conversation, was given a room.  Upon entering is looked clean, cigarrette stains by the bed on the carpet could be overlooked.  Got my stuff put up while on the phone with my business associate, then.... pulled the sheets down.  It was the nightmare you don't want to see.  Although the bed had been made up, the sheets were "well" used.  So gross.  Same front desk clerk refused to bring any new sheets, told me housekeeping was gone, no other rooms available and I'd have to change them myself.  Walked to office for sheets, got back to room, wrong size sheets, back to office.  Same clerk.  Can't find manager.  Doesn't know where sheets are.  She can't change them because of a bad back.......... and so on.  Clerk then told me how all the hotels there have the exact same problem.  I don't even go into the "internet" that come to find out, didn't exist.........................  So, easy to say this is not a hotel I would EVER go back to.MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon arrival at hotel, front desk clerk was agreeing with a temporary "resident" and bashing the management of the hotel.  This should have been my first clue.  There are no elevators and all doors open to outside.  Asked for 1st floor room and finally, after much conversation, was given a room.  Upon entering is looked clean, cigarrette stains by the bed on the carpet could be overlooked.  Got my stuff put up while on the phone with my business associate, then.... pulled the sheets down.  It was the nightmare you don't want to see.  Although the bed had been made up, the sheets were "well" used.  So gross.  Same front desk clerk refused to bring any new sheets, told me housekeeping was gone, no other rooms available and I'd have to change them myself.  Walked to office for sheets, got back to room, wrong size sheets, back to office.  Same clerk.  Can't find manager.  Doesn't know where sheets are.  She can't change them because of a bad back.......... and so on.  Clerk then told me how all the hotels there have the exact same problem.  I don't even go into the "internet" that come to find out, didn't exist.........................  So, easy to say this is not a hotel I would EVER go back to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r114315195-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114315195</t>
+  </si>
+  <si>
+    <t>06/19/2011</t>
+  </si>
+  <si>
+    <t>Cheap and it feels like it</t>
+  </si>
+  <si>
+    <t>I stayed here on business at short notice, location was admittedly handy for my meeting but little else. On the plus side the bed was comfy.Minus sides: right by the freeway and railway, noisy air-con, room door opening onto the street, tiny pool overlooked by said freeway (literally yards away), awful breakfast in styrofoam dishes (!?), general bargain basement feel of the place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r12828339-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>12828339</t>
+  </si>
+  <si>
+    <t>01/20/2008</t>
+  </si>
+  <si>
+    <t>Trip to Texas</t>
+  </si>
+  <si>
+    <t>Well maintained property. Great location for a golfing trip as there is lots of good courses within driving distance.Lots of restaurants within walking distance.Front Desk service was a little down but I think it was because it was so quiet when I was there.</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r8697601-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8697601</t>
+  </si>
+  <si>
+    <t>09/10/2007</t>
+  </si>
+  <si>
+    <t>Very nice hotel...</t>
+  </si>
+  <si>
+    <t>My husband had to stay at this hotel for business reasons so he brought us with him. The hotel was extremely clean. EXTREMELY huge! We had two queen beds and there was a couch with desk in a sorta mini room. The negative was that they didn't have internet service when we stayed there. They have a pool that is partly inside and partly outside. It was great. If rained we had a pool, if it was hot, we had a pool. The staff was very friendly and helpful. One negative was that the options on tv were plain old cable. With three children to entertain until my husband got back it would have been helpful if they had Animal Planet! A good hotel in all though!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2005</t>
+  </si>
+  <si>
+    <t>My husband had to stay at this hotel for business reasons so he brought us with him. The hotel was extremely clean. EXTREMELY huge! We had two queen beds and there was a couch with desk in a sorta mini room. The negative was that they didn't have internet service when we stayed there. They have a pool that is partly inside and partly outside. It was great. If rained we had a pool, if it was hot, we had a pool. The staff was very friendly and helpful. One negative was that the options on tv were plain old cable. With three children to entertain until my husband got back it would have been helpful if they had Animal Planet! A good hotel in all though!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r5145687-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5145687</t>
+  </si>
+  <si>
+    <t>05/15/2006</t>
+  </si>
+  <si>
+    <t>Good hotel for the money</t>
+  </si>
+  <si>
+    <t>Wife and I went to Houston to see friends.  Stayed 2 nights in late October.  The room was large, had a divider wall with a little tv viewing area.  TV was a little weird, only had 10 or so channels.  Bathroom was clean, grounds were fairly nice, and had lots of restaurants within walking distance.  Was close to the highway, so it was easy to get to.  Seemed a little far from major tourist attractions, but Houston is so spread out anyway.  It was close to a Wal-Mart and Lowes, which is fun to go to when you are married and away from your children.  Front desk was helpful when I needed directions.  Worked good for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>Wife and I went to Houston to see friends.  Stayed 2 nights in late October.  The room was large, had a divider wall with a little tv viewing area.  TV was a little weird, only had 10 or so channels.  Bathroom was clean, grounds were fairly nice, and had lots of restaurants within walking distance.  Was close to the highway, so it was easy to get to.  Seemed a little far from major tourist attractions, but Houston is so spread out anyway.  It was close to a Wal-Mart and Lowes, which is fun to go to when you are married and away from your children.  Front desk was helpful when I needed directions.  Worked good for us.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1840,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1872,4437 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>126</v>
+      </c>
+      <c r="X13" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>135</v>
+      </c>
+      <c r="X14" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>152</v>
+      </c>
+      <c r="X16" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>161</v>
+      </c>
+      <c r="X17" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>170</v>
+      </c>
+      <c r="X18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>170</v>
+      </c>
+      <c r="X19" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>184</v>
+      </c>
+      <c r="X20" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" t="s">
+        <v>190</v>
+      </c>
+      <c r="L21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>192</v>
+      </c>
+      <c r="O21" t="s">
+        <v>193</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>194</v>
+      </c>
+      <c r="X21" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>192</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>201</v>
+      </c>
+      <c r="X22" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" t="s">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>209</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>215</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>226</v>
+      </c>
+      <c r="O26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" t="s">
+        <v>230</v>
+      </c>
+      <c r="L27" t="s">
+        <v>231</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>232</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>234</v>
+      </c>
+      <c r="J28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" t="s">
+        <v>236</v>
+      </c>
+      <c r="L28" t="s">
+        <v>237</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>232</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>239</v>
+      </c>
+      <c r="J29" t="s">
+        <v>240</v>
+      </c>
+      <c r="K29" t="s">
+        <v>241</v>
+      </c>
+      <c r="L29" t="s">
+        <v>242</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>243</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>245</v>
+      </c>
+      <c r="J30" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" t="s">
+        <v>247</v>
+      </c>
+      <c r="L30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>243</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>250</v>
+      </c>
+      <c r="J31" t="s">
+        <v>251</v>
+      </c>
+      <c r="K31" t="s">
+        <v>252</v>
+      </c>
+      <c r="L31" t="s">
+        <v>253</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>243</v>
+      </c>
+      <c r="O31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>255</v>
+      </c>
+      <c r="J32" t="s">
+        <v>256</v>
+      </c>
+      <c r="K32" t="s">
+        <v>257</v>
+      </c>
+      <c r="L32" t="s">
+        <v>258</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>259</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>260</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>261</v>
+      </c>
+      <c r="J33" t="s">
+        <v>262</v>
+      </c>
+      <c r="K33" t="s">
+        <v>263</v>
+      </c>
+      <c r="L33" t="s">
+        <v>264</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>265</v>
+      </c>
+      <c r="O33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>267</v>
+      </c>
+      <c r="J34" t="s">
+        <v>268</v>
+      </c>
+      <c r="K34" t="s">
+        <v>269</v>
+      </c>
+      <c r="L34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>265</v>
+      </c>
+      <c r="O34" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>271</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>272</v>
+      </c>
+      <c r="J35" t="s">
+        <v>273</v>
+      </c>
+      <c r="K35" t="s">
+        <v>274</v>
+      </c>
+      <c r="L35" t="s">
+        <v>275</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>276</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>278</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>279</v>
+      </c>
+      <c r="J36" t="s">
+        <v>280</v>
+      </c>
+      <c r="K36" t="s">
+        <v>281</v>
+      </c>
+      <c r="L36" t="s">
+        <v>282</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>276</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>283</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>284</v>
+      </c>
+      <c r="J37" t="s">
+        <v>285</v>
+      </c>
+      <c r="K37" t="s">
+        <v>190</v>
+      </c>
+      <c r="L37" t="s">
+        <v>286</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>287</v>
+      </c>
+      <c r="O37" t="s">
+        <v>73</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>289</v>
+      </c>
+      <c r="J38" t="s">
+        <v>290</v>
+      </c>
+      <c r="K38" t="s">
+        <v>291</v>
+      </c>
+      <c r="L38" t="s">
+        <v>292</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>293</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>294</v>
+      </c>
+      <c r="X38" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>297</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>298</v>
+      </c>
+      <c r="J39" t="s">
+        <v>299</v>
+      </c>
+      <c r="K39" t="s">
+        <v>300</v>
+      </c>
+      <c r="L39" t="s">
+        <v>301</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>293</v>
+      </c>
+      <c r="O39" t="s">
+        <v>97</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>302</v>
+      </c>
+      <c r="X39" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>305</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>306</v>
+      </c>
+      <c r="J40" t="s">
+        <v>307</v>
+      </c>
+      <c r="K40" t="s">
+        <v>308</v>
+      </c>
+      <c r="L40" t="s">
+        <v>309</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>293</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>310</v>
+      </c>
+      <c r="X40" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>313</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>314</v>
+      </c>
+      <c r="J41" t="s">
+        <v>315</v>
+      </c>
+      <c r="K41" t="s">
+        <v>316</v>
+      </c>
+      <c r="L41" t="s">
+        <v>317</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>318</v>
+      </c>
+      <c r="O41" t="s">
+        <v>73</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>319</v>
+      </c>
+      <c r="X41" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>322</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>323</v>
+      </c>
+      <c r="J42" t="s">
+        <v>324</v>
+      </c>
+      <c r="K42" t="s">
+        <v>325</v>
+      </c>
+      <c r="L42" t="s">
+        <v>326</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>327</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>328</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>329</v>
+      </c>
+      <c r="J43" t="s">
+        <v>330</v>
+      </c>
+      <c r="K43" t="s">
+        <v>331</v>
+      </c>
+      <c r="L43" t="s">
+        <v>332</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>327</v>
+      </c>
+      <c r="O43" t="s">
+        <v>73</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>333</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>334</v>
+      </c>
+      <c r="J44" t="s">
+        <v>335</v>
+      </c>
+      <c r="K44" t="s">
+        <v>336</v>
+      </c>
+      <c r="L44" t="s">
+        <v>337</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>338</v>
+      </c>
+      <c r="O44" t="s">
+        <v>73</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>339</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>340</v>
+      </c>
+      <c r="J45" t="s">
+        <v>335</v>
+      </c>
+      <c r="K45" t="s">
+        <v>341</v>
+      </c>
+      <c r="L45" t="s">
+        <v>342</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>338</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>343</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>344</v>
+      </c>
+      <c r="J46" t="s">
+        <v>345</v>
+      </c>
+      <c r="K46" t="s">
+        <v>346</v>
+      </c>
+      <c r="L46" t="s">
+        <v>347</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>348</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>349</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>350</v>
+      </c>
+      <c r="J47" t="s">
+        <v>351</v>
+      </c>
+      <c r="K47" t="s">
+        <v>352</v>
+      </c>
+      <c r="L47" t="s">
+        <v>353</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>354</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>355</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>356</v>
+      </c>
+      <c r="J48" t="s">
+        <v>357</v>
+      </c>
+      <c r="K48" t="s">
+        <v>358</v>
+      </c>
+      <c r="L48" t="s">
+        <v>359</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>360</v>
+      </c>
+      <c r="O48" t="s">
+        <v>73</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>361</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>362</v>
+      </c>
+      <c r="J49" t="s">
+        <v>363</v>
+      </c>
+      <c r="K49" t="s">
+        <v>364</v>
+      </c>
+      <c r="L49" t="s">
+        <v>365</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>366</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>368</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>369</v>
+      </c>
+      <c r="J50" t="s">
+        <v>370</v>
+      </c>
+      <c r="K50" t="s">
+        <v>371</v>
+      </c>
+      <c r="L50" t="s">
+        <v>372</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>373</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>375</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>376</v>
+      </c>
+      <c r="J51" t="s">
+        <v>377</v>
+      </c>
+      <c r="K51" t="s">
+        <v>141</v>
+      </c>
+      <c r="L51" t="s">
+        <v>378</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>373</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>379</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>380</v>
+      </c>
+      <c r="J52" t="s">
+        <v>381</v>
+      </c>
+      <c r="K52" t="s">
+        <v>382</v>
+      </c>
+      <c r="L52" t="s">
+        <v>383</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>384</v>
+      </c>
+      <c r="O52" t="s">
+        <v>193</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>386</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>387</v>
+      </c>
+      <c r="J53" t="s">
+        <v>388</v>
+      </c>
+      <c r="K53" t="s">
+        <v>389</v>
+      </c>
+      <c r="L53" t="s">
+        <v>390</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>391</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>392</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>393</v>
+      </c>
+      <c r="J54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K54" t="s">
+        <v>395</v>
+      </c>
+      <c r="L54" t="s">
+        <v>396</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>354</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>397</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>398</v>
+      </c>
+      <c r="J55" t="s">
+        <v>399</v>
+      </c>
+      <c r="K55" t="s">
+        <v>400</v>
+      </c>
+      <c r="L55" t="s">
+        <v>401</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>402</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>403</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>404</v>
+      </c>
+      <c r="J56" t="s">
+        <v>405</v>
+      </c>
+      <c r="K56" t="s">
+        <v>406</v>
+      </c>
+      <c r="L56" t="s">
+        <v>407</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>408</v>
+      </c>
+      <c r="O56" t="s">
+        <v>73</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>409</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>410</v>
+      </c>
+      <c r="J57" t="s">
+        <v>411</v>
+      </c>
+      <c r="K57" t="s">
+        <v>412</v>
+      </c>
+      <c r="L57" t="s">
+        <v>413</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>408</v>
+      </c>
+      <c r="O57" t="s">
+        <v>73</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>414</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>415</v>
+      </c>
+      <c r="J58" t="s">
+        <v>416</v>
+      </c>
+      <c r="K58" t="s">
+        <v>417</v>
+      </c>
+      <c r="L58" t="s">
+        <v>418</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>419</v>
+      </c>
+      <c r="O58" t="s">
+        <v>97</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>420</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>421</v>
+      </c>
+      <c r="J59" t="s">
+        <v>422</v>
+      </c>
+      <c r="K59" t="s">
+        <v>423</v>
+      </c>
+      <c r="L59" t="s">
+        <v>424</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>425</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>427</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>428</v>
+      </c>
+      <c r="J60" t="s">
+        <v>429</v>
+      </c>
+      <c r="K60" t="s">
+        <v>430</v>
+      </c>
+      <c r="L60" t="s">
+        <v>431</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>425</v>
+      </c>
+      <c r="O60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>433</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>434</v>
+      </c>
+      <c r="J61" t="s">
+        <v>435</v>
+      </c>
+      <c r="K61" t="s">
+        <v>436</v>
+      </c>
+      <c r="L61" t="s">
+        <v>437</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>439</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>440</v>
+      </c>
+      <c r="J62" t="s">
+        <v>441</v>
+      </c>
+      <c r="K62" t="s">
+        <v>442</v>
+      </c>
+      <c r="L62" t="s">
+        <v>443</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>444</v>
+      </c>
+      <c r="O62" t="s">
+        <v>73</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>445</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>446</v>
+      </c>
+      <c r="J63" t="s">
+        <v>447</v>
+      </c>
+      <c r="K63" t="s">
+        <v>448</v>
+      </c>
+      <c r="L63" t="s">
+        <v>449</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>444</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>451</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>452</v>
+      </c>
+      <c r="J64" t="s">
+        <v>453</v>
+      </c>
+      <c r="K64" t="s">
+        <v>454</v>
+      </c>
+      <c r="L64" t="s">
+        <v>455</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>456</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>457</v>
+      </c>
+      <c r="J65" t="s">
+        <v>458</v>
+      </c>
+      <c r="K65" t="s">
+        <v>459</v>
+      </c>
+      <c r="L65" t="s">
+        <v>460</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>461</v>
+      </c>
+      <c r="O65" t="s">
+        <v>97</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>462</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>463</v>
+      </c>
+      <c r="J66" t="s">
+        <v>464</v>
+      </c>
+      <c r="K66" t="s">
+        <v>465</v>
+      </c>
+      <c r="L66" t="s">
+        <v>466</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>467</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>469</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>470</v>
+      </c>
+      <c r="J67" t="s">
+        <v>471</v>
+      </c>
+      <c r="K67" t="s">
+        <v>472</v>
+      </c>
+      <c r="L67" t="s">
+        <v>473</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_60.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_60.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="749">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r602536704-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107812</t>
+  </si>
+  <si>
+    <t>602536704</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>Choose this hotel as they had smoking rooms a central location for our visit to the area.  The room was large, clean and comfortable.  The front desk staff especially Helena was very friendly and helpful.  There are a few restaurants nearby that you can easily walk to if you wish or you can drive out the back entrance to avoid the construction on the main road.  As mentioned here already there are train tracks nearby but we only heard it when we were outside.  Our room was on the east side and it did not bother us.For the price it was great.  Would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>bestwesternwindsortx, Hotel Manager at Best Western Windsor Suites, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Choose this hotel as they had smoking rooms a central location for our visit to the area.  The room was large, clean and comfortable.  The front desk staff especially Helena was very friendly and helpful.  There are a few restaurants nearby that you can easily walk to if you wish or you can drive out the back entrance to avoid the construction on the main road.  As mentioned here already there are train tracks nearby but we only heard it when we were outside.  Our room was on the east side and it did not bother us.For the price it was great.  Would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r543502324-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543502324</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>Great Staff, nice rooms</t>
+  </si>
+  <si>
+    <t>I usually always stay at Bestwestern when I travel and as usual I am always comfortable. This hotel was no different. Quite and cozy, great staff! They had a good breakfast and everything was clean. Little hard to see driving up because it's behind the Comfort suites.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r597437183-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107812</t>
-  </si>
-  <si>
     <t>597437183</t>
   </si>
   <si>
@@ -174,16 +225,10 @@
     <t>Our stop was very comfortable it was nice to get away from the truck for an evening. Being able to go for a swim after unloading our truck is something I look forward to. The staff are very accommodating.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>bestwesternwindsortx, Hotel Manager at Best Western Windsor Suites, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>bestwesternwindsortx, Hotel Manager at Best Western Windsor Suites, responded to this reviewResponded July 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2018</t>
   </si>
   <si>
     <t>Our stop was very comfortable it was nice to get away from the truck for an evening. Being able to go for a swim after unloading our truck is something I look forward to. The staff are very accommodating.More</t>
@@ -207,9 +252,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>bestwesternwindsortx, Hotel Manager at Best Western Windsor Suites, responded to this reviewResponded April 23, 2018</t>
   </si>
   <si>
@@ -240,6 +282,42 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r552230509-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>552230509</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Good hotel in great location</t>
+  </si>
+  <si>
+    <t>Older building with updated clean rooms. Convenient to highways and walking distance to restaurants. Good value but skip the breakfast at the hotel and eat at the IHOP nearby. Eggs were hard, bread not available.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r533409364-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533409364</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>Visiting family in area</t>
+  </si>
+  <si>
+    <t>Nicely remodeled older motel (outside entrance). Ours was a large and comfortable room (2 queen beds AND a sofa). Coffee in room. Easy walk to nearby I-HOP (which was also good). My sister and I chose this location because of price and ease of traffic to visit family (LOTS of construction in area at present.) We would stay here again if in area.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r514110857-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -264,13 +342,7 @@
     <t>513529664</t>
   </si>
   <si>
-    <t>08/15/2017</t>
-  </si>
-  <si>
-    <t>review</t>
-  </si>
-  <si>
-    <t>it was clean and nice i would stay again when I go to visit my family. close to a lot of restaurants and very close to my family. i would recommend this hotel if you our staying in they cypress area. the only issue a lot of hiway construction</t>
+    <t>August 15, 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r503754958-Best_Western_Windsor_Suites-Houston_Texas.html</t>
@@ -291,6 +363,39 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r500256307-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500256307</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>This Motel is pleasant. Does need updating. I would rate this as a 1.5 star rating. The staff is nice and friendly. The fan in the bathroom stays on when light is on and is annoying. No real problems... just thought it was a nicer Hotel with Suites. This is a motel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r497333378-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497333378</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Good Priced Hotel</t>
+  </si>
+  <si>
+    <t>This is well priced hotel compared to others in walking distance.  Polite staff, comfortable clean room.  Easy access to internet.  3-4 restaurant options in walking distance (Even for Americans). Breakfast was basic with option of eggs, bacon, toast, waffle maker etc.  They have a fitness room and small outdoor pool.  Check-in was easy and as I had pre-paid check out was just handing card keys back.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r488799054-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -342,6 +447,42 @@
     <t>I run hot shot loads for my work, I am always looking for a good clean place to stay when I am away from home. Best Western is the best I have stayed in for the price and comfort. Keep up the good work.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r469080106-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469080106</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>They double charged me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So I was double charged and when I spoke to the staff about it she proceeded to explain to me what "pending" meant as if I was a small child and told me they weren't going to double charge me. The room was great i just wanted to pay for it once. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r468545232-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468545232</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Clean friendly and good balue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrived early, receptionist wasSuper friendly and helpful and we were was able to check in without any issues. Room was large, beds were comfy. Located centrally from airport to Houston easy access to roadways. Lots of restaurants close by. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r459901623-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -405,6 +546,57 @@
     <t>Good value for a nights rest, easy in and out with the front door right on the parking lot, a bit old school but it makes it easy to load / unload. Clean and beds are comfortable and check-in desk was very friendly and helpful.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r429343082-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429343082</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Below par!</t>
+  </si>
+  <si>
+    <t>The room was not great. The breakfast buffet has hardly any good options. There is a lot of construction going on outside the hotel. Overall, it was an ok experience. I wouldn't recommend it others...MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagerX1, Manager at Best Western Windsor Suites, responded to this reviewResponded October 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2016</t>
+  </si>
+  <si>
+    <t>The room was not great. The breakfast buffet has hardly any good options. There is a lot of construction going on outside the hotel. Overall, it was an ok experience. I wouldn't recommend it others...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r410009226-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>410009226</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>My family and I stayed the night here after a large-spread power outage in our area.  We weren't looking for anything fancy, just a cold room and a comfortable bed for the night.  The front-desk staff was very friendly to my husband, but that's about all I can say nice about it.  The room smelled like stale smoke.  The carpet was sticky...I don't want to even know how that's possible.  And the bed sheets were stained, dingy and full of small black hairs.  Luckily we were all tired enough to just fall asleep despite the dirty conditions.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>ManagerX1, Manager at Best Western Windsor Suites, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2016</t>
+  </si>
+  <si>
+    <t>My family and I stayed the night here after a large-spread power outage in our area.  We weren't looking for anything fancy, just a cold room and a comfortable bed for the night.  The front-desk staff was very friendly to my husband, but that's about all I can say nice about it.  The room smelled like stale smoke.  The carpet was sticky...I don't want to even know how that's possible.  And the bed sheets were stained, dingy and full of small black hairs.  Luckily we were all tired enough to just fall asleep despite the dirty conditions.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r408082137-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -420,9 +612,6 @@
     <t>very good location with free parking and good service, near to many restaurants staffs are very friendly and cooperative offer microwaves in the room also has laundry service , small summing pool the breakfast is okMoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>ManagerX1, Manager at Best Western Windsor Suites, responded to this reviewResponded August 21, 2016</t>
   </si>
   <si>
@@ -483,6 +672,57 @@
     <t>The rooms were clean and the staff let me check-in and check-out late during both my stays. The staff I dealt with were all nice and pleasant to deal with. I didn't take any pictures of the front of the hotel but it has changed from the displayed photo and had a makeover. I recommend this hotel for business travel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r396441753-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>396441753</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>They know me by name😊</t>
+  </si>
+  <si>
+    <t>My stay here is always relaxing and I am greeted nicely  by the staff. The breakfast is awesome and the check in clerk Rajul is always friendly I would give her a perfect 10 on friendliness. The house keeping staff is excellent to and what ever I need wether it be towels or blankets they are prompt at meeting my request.MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagerX1, Front Desk Manager at Best Western Windsor Suites, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>My stay here is always relaxing and I am greeted nicely  by the staff. The breakfast is awesome and the check in clerk Rajul is always friendly I would give her a perfect 10 on friendliness. The house keeping staff is excellent to and what ever I need wether it be towels or blankets they are prompt at meeting my request.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r382370305-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382370305</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay 30 minutes from airport.</t>
+  </si>
+  <si>
+    <t>Good hotel for family. Stayed here before flying out of George Bush airport (30 minutes away).  Safe area close to restaurants and shopping. Good breakfast. Very large, clean, comfortable room. Workout facilities.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>ManagerX1, Front Desk Manager at Best Western Windsor Suites, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Good hotel for family. Stayed here before flying out of George Bush airport (30 minutes away).  Safe area close to restaurants and shopping. Good breakfast. Very large, clean, comfortable room. Workout facilities.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r382063424-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -555,6 +795,54 @@
     <t>I feel relaxed and at peace at Best Western Windsor Suites. I have been coming to the same hotel since 2013 and I feel satisfied with the services, location and the security aspect of the area. to crown it all it is a quite area with the exception when a train passes.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r370022058-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>370022058</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Very Unsatisfied</t>
+  </si>
+  <si>
+    <t>There were many problems with the hotel.  Upon arrival there was so much construction that I could barely get into the parking area and couldn't pull my U-Haul trailer into it.  I had to run over the curb to get out without hitting another car.  I was put into a handicap room despite only being 35 and in good health.  They didn't even ask or let me know it was handicap.  I found out when entering the bathroom.  The room was very hot upon arrival.  How hard is it to turn on the ac when a reservation is called in?  The room had an odd smell, almost like cigarette smoke even though it was a non smoking room.  The hotel is next to the freeway so the noise was very loud all night particularly while trying to go to sleep.  The sink was stopped up and dirty.  Their was a hair on the wall in the bathroom.  The tub faucet was broken/not securely attached to the wall.  The shower switch was broken and stuck between shower and bath so water pressure was lost for taking a shower.  I will never return to this hotel and would recommend Best Western to renovate the property and take a good look at the employees.MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagerX1, General Manager at Best Western Windsor Suites, responded to this reviewResponded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2016</t>
+  </si>
+  <si>
+    <t>There were many problems with the hotel.  Upon arrival there was so much construction that I could barely get into the parking area and couldn't pull my U-Haul trailer into it.  I had to run over the curb to get out without hitting another car.  I was put into a handicap room despite only being 35 and in good health.  They didn't even ask or let me know it was handicap.  I found out when entering the bathroom.  The room was very hot upon arrival.  How hard is it to turn on the ac when a reservation is called in?  The room had an odd smell, almost like cigarette smoke even though it was a non smoking room.  The hotel is next to the freeway so the noise was very loud all night particularly while trying to go to sleep.  The sink was stopped up and dirty.  Their was a hair on the wall in the bathroom.  The tub faucet was broken/not securely attached to the wall.  The shower switch was broken and stuck between shower and bath so water pressure was lost for taking a shower.  I will never return to this hotel and would recommend Best Western to renovate the property and take a good look at the employees.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r367905256-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>367905256</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Great Experience!</t>
+  </si>
+  <si>
+    <t>The breakfast was great and the staff are very kind! I would definitely come back. The rooms were very clean, it's a great location. My stay there was definitely the best. I had no issues whatsoever and I highly recommend this hotel, not doubt about it.MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagerX1, Front Desk Manager at Best Western Windsor Suites, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>The breakfast was great and the staff are very kind! I would definitely come back. The rooms were very clean, it's a great location. My stay there was definitely the best. I had no issues whatsoever and I highly recommend this hotel, not doubt about it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r364749722-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -597,9 +885,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>ManagerX1, Front Desk Manager at Best Western Windsor Suites, responded to this reviewResponded April 12, 2016</t>
   </si>
   <si>
@@ -630,6 +915,57 @@
     <t>Very pleasant interior and exterior. Great location - lots of restaurants within walking distance. Staff was friendly and courteous.  Reported problem with room and it was taken care of in a timely manner.  Very pleasant interior and exterior. Great location - lots of restaurants within walking distance. Staff was friendly and courteous.  Reported problem with room and it was taken care of in a timely manner.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r355926955-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355926955</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service!!!</t>
+  </si>
+  <si>
+    <t>Excellent customer service. Keep up the good work. Best by far for a first time stay at a hotel that I have never thought of staying at. Value for room and the location is a plus. Thank you again for a wonderful experience and look forward to having another in the near future.MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagerX1, Front Office Manager at Best Western Windsor Suites, responded to this reviewResponded March 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2016</t>
+  </si>
+  <si>
+    <t>Excellent customer service. Keep up the good work. Best by far for a first time stay at a hotel that I have never thought of staying at. Value for room and the location is a plus. Thank you again for a wonderful experience and look forward to having another in the near future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r352283143-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352283143</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>Always better with each experience</t>
+  </si>
+  <si>
+    <t>The 'Best Western' brand is my first hotel choice in the US for her comfy rooms, excellent services, &amp; personal touch - amiable staff. And in Houston, TX; the Windsor suites on FM 1960 is my preferred hotel because of proximity to where I do business. It's so interesting and gladdening that it's always been a much better experience than the last time whenever I return to the hotel....and this has been so for the past 3 years! I think the hotel epitomizes 'CONTINUOUS IMPROVEMENT'....from carpets and furniture change-out to Fitness Centre re-work to Breakfast improvement to Hi-Speed Wifi increased performance. I guess I'm hooked. It doesn't get better than this...always looking forward to new improvement. You want to do 'Best Western'? Don't think twice - JUST DO IT!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>ManagerX1, Front Office Manager at Best Western Windsor Suites, responded to this reviewResponded March 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2016</t>
+  </si>
+  <si>
+    <t>The 'Best Western' brand is my first hotel choice in the US for her comfy rooms, excellent services, &amp; personal touch - amiable staff. And in Houston, TX; the Windsor suites on FM 1960 is my preferred hotel because of proximity to where I do business. It's so interesting and gladdening that it's always been a much better experience than the last time whenever I return to the hotel....and this has been so for the past 3 years! I think the hotel epitomizes 'CONTINUOUS IMPROVEMENT'....from carpets and furniture change-out to Fitness Centre re-work to Breakfast improvement to Hi-Speed Wifi increased performance. I guess I'm hooked. It doesn't get better than this...always looking forward to new improvement. You want to do 'Best Western'? Don't think twice - JUST DO IT!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r348084016-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -645,9 +981,6 @@
     <t>we had an enjojable stay at b/w winsor in Houston. at both ckeck-in and check out the staff was very pleasant and happy.the breakfast was fairly good as usual. the breakfast worker was  very pleasant and caring. the hotel was clean both inside and out.</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r343917027-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -681,6 +1014,36 @@
     <t>If you want to listen to a train come by go ahead and go to this hotel.   We had one come by at 3am woke us up tried to go back to sleep and then another one at 5am  gave up after that - Also had plumbing issues</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r334729456-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334729456</t>
+  </si>
+  <si>
+    <t>12/23/2015</t>
+  </si>
+  <si>
+    <t>Unhappy</t>
+  </si>
+  <si>
+    <t>Very bad experience.  The website showed the motel had a hot tub, they did not.  When asked for a remedy, staff was not helpful.  There was a train that went right by the motel at least 3 times a night.  Motel is at an intersection. therefore, train had to blow horn.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r331968806-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331968806</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>This hotel is reasonable value for the area as Houston seems to be expensive.  The rooms are large and have fridge, microwave, internet etc.  There is a steak house and other restaurants within walking distance.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r331349459-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -696,9 +1059,6 @@
     <t>This Hotel was Great!!! clean and nice atmosphere (traffic sound was not a issue even though it was off a major freeway) , Room was very relaxing, Front Desk was helpful with "everything". I plan on staying at "other" locations within this establishment - I was a very SATISFIED CUSTOMER!!!</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r324056898-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -732,6 +1092,36 @@
     <t>mr alex is manager over there and a nice cooperative guy.i have been to 12 days.it is on high way 6.thats the plus point.no need to go inside the streets.one draw back is it is near railway track so odd numbers room get some noise.staff is very friendly n cleaniness is good.breakfast is also good.please check for smoking n non smoking rooms before booking.waffle,scrumblled egg,potatoes,fruits......</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r321461087-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321461087</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>umm... it was a very interesting stay here.</t>
+  </si>
+  <si>
+    <t>the rooms, ya they are quite good...no problems leading towards the wifi the hotel staff they are quite kind and helping nature they serve a good breakfast thoughperhaps if u guys r on a visit to Houston by any purpose the is quite good to let you stay in</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r319215878-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>319215878</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Do not stay here!!!</t>
+  </si>
+  <si>
+    <t>The hotel room smelt like mold... the room and hallways were dirty.. If you don't get down there for the free breakfast when it opens, all the food will be gone.. The entire property needs to be remodeled... I would not recommend this hotel to anyone.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r316478328-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -780,6 +1170,42 @@
     <t>Arrived very late at night, very tired and lost. For some reason we were given a smokers room with no explanation. No mention that we could have a complementary breakfast up to 9am, too tired to complain that night, we were however able to move rooms the next day.Discovered that the freight trains pass by the hotel in the night and blow their horns as they go by wakening us every night barring Sunday.The view is of the freeway, and each day we got a little lost going back to the hotel.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r303046860-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>303046860</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>HIRED EMPLOYEES STEALING FROM GUESTS - MANAGEMENT LACK OF CONCERN!</t>
+  </si>
+  <si>
+    <t>We are longstanding Rewards members with Best Western Hotel. And have stayed at this hotel so many times that they have our info in the system. The hotel had workers there painting the room doors. After we checked into our room one of the workers had an access car and came into our room 3 times as we were laying down resting. I had clled the front office to tell them to please make them stop!! And that we were going to be leaving later and Did Not Want Them In Our Room Painting!! The front desk clerk assurred us that it would not happen. When we got back later in the evening they had been in our room and my jewelry had been gone thru and some of it stolen. We immediately went up to the front desk and told them and she said because of the late hour she would leave a note for management in the morning. We got up early and reqyested to speak to the manager. He would not speak to us on the phone or come to the hotel. So we called the police and made a report. This is the worst hotel we most worst customer service we have ever dealt with! and we travel most every weekend and Stay in a multitude of hotel all across Texas! But this one is defintely the absolutely the worst!!! No concern for my stolen jewlry...We are longstanding Rewards members with Best Western Hotel. And have stayed at this hotel so many times that they have our info in the system. The hotel had workers there painting the room doors. After we checked into our room one of the workers had an access car and came into our room 3 times as we were laying down resting. I had clled the front office to tell them to please make them stop!! And that we were going to be leaving later and Did Not Want Them In Our Room Painting!! The front desk clerk assurred us that it would not happen. When we got back later in the evening they had been in our room and my jewelry had been gone thru and some of it stolen. We immediately went up to the front desk and told them and she said because of the late hour she would leave a note for management in the morning. We got up early and reqyested to speak to the manager. He would not speak to us on the phone or come to the hotel. So we called the police and made a report. This is the worst hotel we most worst customer service we have ever dealt with! and we travel most every weekend and Stay in a multitude of hotel all across Texas! But this one is defintely the absolutely the worst!!! No concern for my stolen jewlry at all!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>We are longstanding Rewards members with Best Western Hotel. And have stayed at this hotel so many times that they have our info in the system. The hotel had workers there painting the room doors. After we checked into our room one of the workers had an access car and came into our room 3 times as we were laying down resting. I had clled the front office to tell them to please make them stop!! And that we were going to be leaving later and Did Not Want Them In Our Room Painting!! The front desk clerk assurred us that it would not happen. When we got back later in the evening they had been in our room and my jewelry had been gone thru and some of it stolen. We immediately went up to the front desk and told them and she said because of the late hour she would leave a note for management in the morning. We got up early and reqyested to speak to the manager. He would not speak to us on the phone or come to the hotel. So we called the police and made a report. This is the worst hotel we most worst customer service we have ever dealt with! and we travel most every weekend and Stay in a multitude of hotel all across Texas! But this one is defintely the absolutely the worst!!! No concern for my stolen jewlry...We are longstanding Rewards members with Best Western Hotel. And have stayed at this hotel so many times that they have our info in the system. The hotel had workers there painting the room doors. After we checked into our room one of the workers had an access car and came into our room 3 times as we were laying down resting. I had clled the front office to tell them to please make them stop!! And that we were going to be leaving later and Did Not Want Them In Our Room Painting!! The front desk clerk assurred us that it would not happen. When we got back later in the evening they had been in our room and my jewelry had been gone thru and some of it stolen. We immediately went up to the front desk and told them and she said because of the late hour she would leave a note for management in the morning. We got up early and reqyested to speak to the manager. He would not speak to us on the phone or come to the hotel. So we called the police and made a report. This is the worst hotel we most worst customer service we have ever dealt with! and we travel most every weekend and Stay in a multitude of hotel all across Texas! But this one is defintely the absolutely the worst!!! No concern for my stolen jewlry at all!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r298087997-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>298087997</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeat customers </t>
+  </si>
+  <si>
+    <t>Whenever we come to Houston TX to visit our daughter and her family we stay at this hotel.  This is the 6th or 7th time.  Each time it has been very clean, comfortable and the staff are very pleasant.  It cost right around 100.00 a night but it is well worth it.  We highly recommended this hotel.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r295527177-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -831,6 +1257,39 @@
     <t>No coffee from Sun thru Tues in hotel.  No grab bars in tub. Room not cleaned. No hot breakfast food after 8:30 (breakfast served til 9). Avoid at all costs.  Very slow internet connection. Not enough parking.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r278905698-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278905698</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>The hotel was convenient, clean, and pleasant.  I was able to book online a few blocks from the neighborhood we were visiting.  The room was ready and check-in very efficient.  The same is true of check-out.  We will come back when we need a room in that area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r277434214-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277434214</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Great for the price, location good but rear access road under construction. It's located right at the intersection of the 290 and Hwy. 6 and makes for an easy trip in and out of the area. Great places to dine within walking distance.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r274552321-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -846,9 +1305,6 @@
     <t>I'm staying at this hotel while writing this review but I'm seriously considering moving out. The main reason is that I had 2 incidents within the last week when coming back to the hotel I found the door to my room not closed. Not wide open but not closed either, so that anyone can push it and get inside without a key. Coupled with the doors opening directly to the street motel style this is incredibly unsafe. The first time it happened I had a long conversation with the manager Alex. He promised to talk to the maids and check the cameras to see exactly what happened (did somebody break in or did the maid leave the door open?) Needless to say, I never heard from him again. And today I found my door not closed again. Nothing seemed to disappear but now I have to take all my valuables with me and WHY DO I EVEN HAVE TO WORRY ABOUT THIS? So if you don't care about safety please go ahead and book a room here.Oh, and as an added bonus I had to replace the sheets as they had some bright yellow spots on them when I got the room. Some of my towels and pillow cases were also dirty.MoreShow less</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>I'm staying at this hotel while writing this review but I'm seriously considering moving out. The main reason is that I had 2 incidents within the last week when coming back to the hotel I found the door to my room not closed. Not wide open but not closed either, so that anyone can push it and get inside without a key. Coupled with the doors opening directly to the street motel style this is incredibly unsafe. The first time it happened I had a long conversation with the manager Alex. He promised to talk to the maids and check the cameras to see exactly what happened (did somebody break in or did the maid leave the door open?) Needless to say, I never heard from him again. And today I found my door not closed again. Nothing seemed to disappear but now I have to take all my valuables with me and WHY DO I EVEN HAVE TO WORRY ABOUT THIS? So if you don't care about safety please go ahead and book a room here.Oh, and as an added bonus I had to replace the sheets as they had some bright yellow spots on them when I got the room. Some of my towels and pillow cases were also dirty.More</t>
   </si>
   <si>
@@ -882,6 +1338,33 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r265393136-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265393136</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>Awsome Stay</t>
+  </si>
+  <si>
+    <t>The stay was great but i still believe that the rooms may be a little over priced. The location is not so good as well you have to drive everywhere since the Highway is right out the door. I have also been staying at this hotel every time i go to Houston they see my face a lot. I would of liked if they at least threw in an extra night. Iv stayed at this hotel more than 13 times.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r265393447-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265393447</t>
+  </si>
+  <si>
+    <t>Be Advised</t>
+  </si>
+  <si>
+    <t>Fairly convenient location for our planned activities.  Be advised, all rooms open to the exterior of the buildings.  A reported problem with the toilet plumbing was never repaired nor did management offer to relocate us.  The breakfast buffet was adequate except for the "eggs" which were reconstituted variety and over done.  Condiments such as butter were difficult to locate and seating in the breakfast area is limited and close.  Probably would not stay there again.  Trains come by late at night and blow their horns disturbing sleep.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r264216018-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1440,57 @@
     <t>Nice hotel, good breakfast, even had kolaches! I've never seen kolaches on a continental breakfast :) Bed was a bit hard for my taste, but everything else was great. I was surprised how nice the decor was in the lobby and rooms. For a BW it was very nice!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r259202235-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259202235</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Best Western Windsor Suites Houston</t>
+  </si>
+  <si>
+    <t>Great place to stay. Use your air miles to offset cost. Breakfast was well done. Reception was well handled. Rooms were large, which was a good thing considering we had lots of luggage. Parking right outside your room door.MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWesternWindsor, Manager at Best Western Windsor Suites, responded to this reviewResponded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Great place to stay. Use your air miles to offset cost. Breakfast was well done. Reception was well handled. Rooms were large, which was a good thing considering we had lots of luggage. Parking right outside your room door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r250121872-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250121872</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>Great location for the money!!!</t>
+  </si>
+  <si>
+    <t>Very clean, nice location, located near major highway with a lot of nice restaurants and close to some shopping as well. The location was clean both inside and outside and the staff was extremely friendly and very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>BestWesternWindsor, Manager at Best Western Windsor Suites, responded to this reviewResponded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Very clean, nice location, located near major highway with a lot of nice restaurants and close to some shopping as well. The location was clean both inside and outside and the staff was extremely friendly and very helpful.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r249126937-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1551,39 @@
     <t>This is a real good hotel to stay in and we enjoyed our stay but the breakfast choice  is not so good. the rooms were really clean and the rest room was also good. I will reccomend best western to my family and friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r237357911-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237357911</t>
+  </si>
+  <si>
+    <t>10/31/2014</t>
+  </si>
+  <si>
+    <t>Long stay</t>
+  </si>
+  <si>
+    <t>I was with a group of 4, we where laid over in Houston for 6 days. The coast of the room was still over $100.00.  The only thing I can comment on is the fitness center. It was crowded, it had 3 pieces of equipment of the same. a weight bench with no weights. The whole room wasn't set up right. Next to a train track.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r235869035-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235869035</t>
+  </si>
+  <si>
+    <t>10/23/2014</t>
+  </si>
+  <si>
+    <t>Very nice stay -- as usual!</t>
+  </si>
+  <si>
+    <t>We stay at this hotel several times a year when we visit family in the area.  The rooms are clean and comfortable with a couch, desk, good electric hook-ups, fridge and microwave, and large bathroom vanity area.  The breakfast is very good with lots of choices.  The staff is always helpful and friendly and accommodate our special requests.  The location is convenient to major highways as well as to our family.  There is also a nice pool and fitness room.  Definitely recommend this hotel.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r231715550-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1063,6 +1630,39 @@
   </si>
   <si>
     <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r210291547-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210291547</t>
+  </si>
+  <si>
+    <t>06/14/2014</t>
+  </si>
+  <si>
+    <t>A bit worn around the edges</t>
+  </si>
+  <si>
+    <t>Overnight stay on a drive through trip. Nothing much to say except the price was okay. Nothing special and this hotel could use some maintenance. Paint, etc. Staff were friendly. Train tracks run just south of the hotel, but only one train went by at around 9:00 in the evening blowing it's horn, but nothing other than that the night we were there.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r209676824-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209676824</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Not bad for price</t>
+  </si>
+  <si>
+    <t>Compared to other hotel rates, this Best Western was not a bad price. The rooms open out to the parking area. They have been smoked in but have been cleaned as much as possible to hide the smell. The breakfast area was pleasant and the food was not bad. There were warm items like omelets and sausage. The location was difficult to get in and out of because of construction.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r206738786-Best_Western_Windsor_Suites-Houston_Texas.html</t>
@@ -1128,6 +1728,36 @@
 Cons: Not a 3star to my expectations, loud train, not a lot of parking on one side, no hot tub like advertised....I typically get a 3 star or higher on Priceline, but this time I was very disappointed.  They rated this hotel as a 3 star, but would put it at a lower 2.  The room was clean, and the internet worked great.  We paid almost 90/night for this place.  The pictured on the hotel website and the priceline website both stated and showed pics of a hot tub.  Even the hotel room brochure showed a hottub, but no hottub whatsoever.  The owner apparently concreted the hot tub over for a water fall that did not even work/was turned on.  Non of the Tv's channels were HD.  They only provided a shampoo/conditioner all in one.  Also it is very close to train tracks, and all night almost on the hour you would hear the train blaring its horn blasting you out of your sleep.  There is a lot of restaurants right next door though.  You have probably about 10 different choices right there.  Easy access on and off the highway, which can be bad or good.  I did speak the Best Western concerning my unhappiness with the hotel, and they offered us a room with a Jacuzzi tub, or I could cancel the rest of the reservation.  I will say that it was nice of them to do that.Cons: Not a 3star to my expectations, loud train, not a lot of parking on one side, no hot tub like advertised.Pros: Lots of great restaurants right next door, clean room.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r200429729-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200429729</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>stay near Houston</t>
+  </si>
+  <si>
+    <t>We needed to stay in Houston area to catch a late flight the next day. We didn't want to stay too close to town due to traffic etc. so chose the Windsor suites. The afternoon desk clerk was very helpful as I had booked online and entered the wrong checkin date. She fixed it up and was helpful with advice on where to food shop locally .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r200049907-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200049907</t>
+  </si>
+  <si>
+    <t>04/04/2014</t>
+  </si>
+  <si>
+    <t>out of the way</t>
+  </si>
+  <si>
+    <t>the rooms are clean,  the overall appearance is well kept and the building is probably less than 5 years old, the breakfast bar had a good assortment with some items I have not seen elsewhere, good internet, comfortable beds, convenient restaurants, easy access to the hwy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r199422820-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1182,6 +1812,42 @@
     <t>I moved to this location from the WestChase location,  to be closer to my kids. Huge mistake. First the cleaning crew kept coming into room by "mistake" three times in less than an hour. The room had issues. Hole in door, badly repaired, refrigerator barely worked and the microwave was dirty. There is a train track and a train with whistles early on week day mornings. And on the last day, cable "stopped" working at around midnight. And was never fully returned. Was this to get people to leave earlier? Possibly,  as this also occurred the last time I stayed at this location. And beware of the stop signs near hotel. Accidents galore. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r180415419-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180415419</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>Albany Stay</t>
+  </si>
+  <si>
+    <t>Hotel needs a door strip or sometime to help with noise control.  Also crickets, etc. from entering the room.  I could hear patrons talking as they walked the halls.  First day visit, bathroom sink clogged on arrival, something housingkeeping should have noticed as they refreshed the room.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r172783058-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172783058</t>
+  </si>
+  <si>
+    <t>08/18/2013</t>
+  </si>
+  <si>
+    <t>Terrible service,, lousy neighborhood</t>
+  </si>
+  <si>
+    <t>Reception was terrible, clerk was rude and unkind.Room clean and spacious, but smelled horrible. Towels were stained, when we requested clean towels, no one responded. The tiny outdoor pool overlooked a dirty lot and right next to a busy highway so not very relaxing."Hot " breakfast was cold and greasy.  Exterior hallways leaving us feeling unsafe. We cancelled our second night to find a safer, Quieter, friendlier hotel.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r171135256-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1197,9 +1863,6 @@
     <t>This Best Western is located in a very convenient location at North West side of Houston, Texas.  The Hotel is nicely decorated and very clean and Staff are very courteous and helpful.  Breakfast is satisfactory and it's better than most other continental breakfast offered by hotels.  Free internet and free parking are very handy.  I highly recommend this Best Western Windsor Suite.</t>
   </si>
   <si>
-    <t>August 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r170082208-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1233,6 +1896,72 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r161289833-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161289833</t>
+  </si>
+  <si>
+    <t>05/20/2013</t>
+  </si>
+  <si>
+    <t>Fair price, middle of the road accommodations, nothing special</t>
+  </si>
+  <si>
+    <t>I booked this hotel for the nights of 05/13 – 05/14 for business.  I needed to stay on the East side of Houston for work.  I have stayed in Hotels all over the continental USA so I have been in both good and bad…  This hotel was Moderate at best.
+* Staff was courteous and polite.
+* Breakfast was fine 
+* Cheap bed - Not horrible, not the worst.  
+* The work station was bad.  This is important to me as I always have tons of work to do after getting back to the room for the night.  Old table/ desk with not desk lamp.  No rolling chair.
+* Some obvious wear in the hotel (missing tile, bad carpet in spots, etc.).  
+* The police were doing random vehicle searches at the next East Turn around which did not add to my confidence of the location.
+* The hotel has gaited parking with a room key.  Both good and bad.  Helps with security but is gaited parking needed in this part of town?
+* Great water pressure on Monday….less than half of that pressure on Tuesday.
+The low down – 5.5/10
+Good hotel if you are looking for a quick, cheaper bed to crash in.  Best Western points also gain you free stays cheaper or faster than a lot of other brands.
+Decent hotel if you’re truly in a budget and looking for a moderate affordable room.
+NOT recommended for...I booked this hotel for the nights of 05/13 – 05/14 for business.  I needed to stay on the East side of Houston for work.  I have stayed in Hotels all over the continental USA so I have been in both good and bad…  This hotel was Moderate at best.* Staff was courteous and polite.* Breakfast was fine * Cheap bed - Not horrible, not the worst.  * The work station was bad.  This is important to me as I always have tons of work to do after getting back to the room for the night.  Old table/ desk with not desk lamp.  No rolling chair.* Some obvious wear in the hotel (missing tile, bad carpet in spots, etc.).  * The police were doing random vehicle searches at the next East Turn around which did not add to my confidence of the location.* The hotel has gaited parking with a room key.  Both good and bad.  Helps with security but is gaited parking needed in this part of town?* Great water pressure on Monday….less than half of that pressure on Tuesday.The low down – 5.5/10Good hotel if you are looking for a quick, cheaper bed to crash in.  Best Western points also gain you free stays cheaper or faster than a lot of other brands.Decent hotel if you’re truly in a budget and looking for a moderate affordable room.NOT recommended for business or family vacations.  Too many choices in the area for not much more.  Though I wouldn’t totally toast the establishment, next time I stay in Houston (several times a year) I will be more willing to add to my drive and stay at a better establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I booked this hotel for the nights of 05/13 – 05/14 for business.  I needed to stay on the East side of Houston for work.  I have stayed in Hotels all over the continental USA so I have been in both good and bad…  This hotel was Moderate at best.
+* Staff was courteous and polite.
+* Breakfast was fine 
+* Cheap bed - Not horrible, not the worst.  
+* The work station was bad.  This is important to me as I always have tons of work to do after getting back to the room for the night.  Old table/ desk with not desk lamp.  No rolling chair.
+* Some obvious wear in the hotel (missing tile, bad carpet in spots, etc.).  
+* The police were doing random vehicle searches at the next East Turn around which did not add to my confidence of the location.
+* The hotel has gaited parking with a room key.  Both good and bad.  Helps with security but is gaited parking needed in this part of town?
+* Great water pressure on Monday….less than half of that pressure on Tuesday.
+The low down – 5.5/10
+Good hotel if you are looking for a quick, cheaper bed to crash in.  Best Western points also gain you free stays cheaper or faster than a lot of other brands.
+Decent hotel if you’re truly in a budget and looking for a moderate affordable room.
+NOT recommended for...I booked this hotel for the nights of 05/13 – 05/14 for business.  I needed to stay on the East side of Houston for work.  I have stayed in Hotels all over the continental USA so I have been in both good and bad…  This hotel was Moderate at best.* Staff was courteous and polite.* Breakfast was fine * Cheap bed - Not horrible, not the worst.  * The work station was bad.  This is important to me as I always have tons of work to do after getting back to the room for the night.  Old table/ desk with not desk lamp.  No rolling chair.* Some obvious wear in the hotel (missing tile, bad carpet in spots, etc.).  * The police were doing random vehicle searches at the next East Turn around which did not add to my confidence of the location.* The hotel has gaited parking with a room key.  Both good and bad.  Helps with security but is gaited parking needed in this part of town?* Great water pressure on Monday….less than half of that pressure on Tuesday.The low down – 5.5/10Good hotel if you are looking for a quick, cheaper bed to crash in.  Best Western points also gain you free stays cheaper or faster than a lot of other brands.Decent hotel if you’re truly in a budget and looking for a moderate affordable room.NOT recommended for business or family vacations.  Too many choices in the area for not much more.  Though I wouldn’t totally toast the establishment, next time I stay in Houston (several times a year) I will be more willing to add to my drive and stay at a better establishment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r159174296-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159174296</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>Read ME i'll change your mind!</t>
+  </si>
+  <si>
+    <t>i was super hesitant to stay here after i read most of the reviews...i had already booked the rooms online so i was like OH WELL what can i do about it now. so anyways, the room was clean, a/c worked well, bathroom was clean. the only LITTLE downside was the jacuzzi tub had a couple scratches at the bottom and was not perfect clean. but i know its not easy to get water stains off of a tub floor so no biggie. it didnt bother me. the train did go by but in the after noon. everything was fine. it was NOT too noisy, the hotel staff was friendly. i would definitely stay there again! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>i was super hesitant to stay here after i read most of the reviews...i had already booked the rooms online so i was like OH WELL what can i do about it now. so anyways, the room was clean, a/c worked well, bathroom was clean. the only LITTLE downside was the jacuzzi tub had a couple scratches at the bottom and was not perfect clean. but i know its not easy to get water stains off of a tub floor so no biggie. it didnt bother me. the train did go by but in the after noon. everything was fine. it was NOT too noisy, the hotel staff was friendly. i would definitely stay there again! :)More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r155321099-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1284,6 +2013,36 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r146813771-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146813771</t>
+  </si>
+  <si>
+    <t>12/05/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r139772536-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139772536</t>
+  </si>
+  <si>
+    <t>09/08/2012</t>
+  </si>
+  <si>
+    <t>Value and a good stay</t>
+  </si>
+  <si>
+    <t>It's a perfect location because you're near restaurants. Suites are more than comfortable. Great hot breakfast. They give  you discounts for local eateries. Staff are adequate. We like this hotel for business trips. Good value and a great breakfast.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r133879799-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1299,9 +2058,6 @@
     <t>Stayed here 1 night in June. It was close to home and as our AC was out and temps were over 100 we had to spend the night in a hotel. The property used to be much nicer but now the exterior is run down. Crumbling and missing concrete fencing all around the property, dead shrubs, etc. A minimal investment could really spruce up the exterior. Room interior was just ok. It too is overdue for an upgrade. Tired looking carpet, bathroomarea  showing a lot of wear. AC unit was difficult to control for comfort. Sometimes it ran too long and sometimes not long enough to keep it cool, probably a thermostat issue that needs to be addressed. Toiletries are very basic. On the upside the front desk staff was efficient and friendly. The morning breakfast was unappealing. Instant coffee machine, the usual thawed out frozen pastries and some really unappetizing looking frozen omlette looking things. There are a number of close restaurants that are within walking distance, (Ihop, Chili's, Chuy's, Mamacitas, Texas Roadhouse, Starbucks, Chipotle, Applebee's and others. Property is about 1 block off of Highway 290 and Highway 6.Do not plan on returning here again and would not recommend to friends until this place is upgraded. The rate was good, about $80 with AAA rate.MoreShow less</t>
   </si>
   <si>
-    <t>June 2012</t>
-  </si>
-  <si>
     <t>Stayed here 1 night in June. It was close to home and as our AC was out and temps were over 100 we had to spend the night in a hotel. The property used to be much nicer but now the exterior is run down. Crumbling and missing concrete fencing all around the property, dead shrubs, etc. A minimal investment could really spruce up the exterior. Room interior was just ok. It too is overdue for an upgrade. Tired looking carpet, bathroomarea  showing a lot of wear. AC unit was difficult to control for comfort. Sometimes it ran too long and sometimes not long enough to keep it cool, probably a thermostat issue that needs to be addressed. Toiletries are very basic. On the upside the front desk staff was efficient and friendly. The morning breakfast was unappealing. Instant coffee machine, the usual thawed out frozen pastries and some really unappetizing looking frozen omlette looking things. There are a number of close restaurants that are within walking distance, (Ihop, Chili's, Chuy's, Mamacitas, Texas Roadhouse, Starbucks, Chipotle, Applebee's and others. Property is about 1 block off of Highway 290 and Highway 6.Do not plan on returning here again and would not recommend to friends until this place is upgraded. The rate was good, about $80 with AAA rate.More</t>
   </si>
   <si>
@@ -1341,6 +2097,42 @@
     <t>First of all the location sucks! It right by a freeway and railroads. All you hear is chooo chooo! All night! I came with my wife and kids, and we found this hotel online. The rooms look really nice online but thats all a joke. My microwave was not working and the toliet was running all night. The TV sucked! Now days its a ordinary thing to have flat screen tv's in hotel rooms. My room had a old box tv. The A/C in my room was making alot of noise. The next day I went to have breakfast which was decent, but I have seen better in other Best Westerns. The lobby was nice, and modern. On the other hand the staff was rude! The owners wife if I can recall, Rita was very rude. I told her about the rooms probelms and then I told her about the televisons and how they should change the outdated sets. She just went off on me telling me its not my buisness to tell her what to do. I was like really! I checked out the next day, and told myself im never coming back. I do NOT recommend this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r125692548-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125692548</t>
+  </si>
+  <si>
+    <t>03/06/2012</t>
+  </si>
+  <si>
+    <t>Not the Best Western i've stayed in!</t>
+  </si>
+  <si>
+    <t>Was booked a room in this hotel as it was close to my companies offices. As a previous reviewer said all the rooms open out onto a communal landing which is easily accessible from the street, when I was being given my room the desk clerk said "oh we have given you one of our best rooms" what rot, they are all the same. The rooms are just ok, TV/Fridge and large bed but I felt a bit uneasy about the the rooms being open to the outside world. The big negative and the one which means i won't be staying here again is the railway line behind the hotel and the "freeway" next to it. At stupid "o" clock in the morning the freight trains come down the railway line behind the hotel and blow their horns as they cross the main road, I thought it was the 5 minute warning the first time I heard it! Also the breakfast is decidedly dodgy with a cold omlette and emaciated sausages and damp Bran Flakes. Needless to say I won't be back, especially as there is a huge choice of hotels in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Was booked a room in this hotel as it was close to my companies offices. As a previous reviewer said all the rooms open out onto a communal landing which is easily accessible from the street, when I was being given my room the desk clerk said "oh we have given you one of our best rooms" what rot, they are all the same. The rooms are just ok, TV/Fridge and large bed but I felt a bit uneasy about the the rooms being open to the outside world. The big negative and the one which means i won't be staying here again is the railway line behind the hotel and the "freeway" next to it. At stupid "o" clock in the morning the freight trains come down the railway line behind the hotel and blow their horns as they cross the main road, I thought it was the 5 minute warning the first time I heard it! Also the breakfast is decidedly dodgy with a cold omlette and emaciated sausages and damp Bran Flakes. Needless to say I won't be back, especially as there is a huge choice of hotels in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r118869260-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118869260</t>
+  </si>
+  <si>
+    <t>10/02/2011</t>
+  </si>
+  <si>
+    <t>On a recent trip to Houston, Tx. I stayed at the Best Western Windsor Suites! The staff was very helpful and friendly! The rooms were nicely kept and very spacious. The hotel grounds were well maintained as well! All in all I would return and stay with them again.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r116077284-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1392,6 +2184,42 @@
     <t>I stayed here on business at short notice, location was admittedly handy for my meeting but little else. On the plus side the bed was comfy.Minus sides: right by the freeway and railway, noisy air-con, room door opening onto the street, tiny pool overlooked by said freeway (literally yards away), awful breakfast in styrofoam dishes (!?), general bargain basement feel of the place.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r89265197-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>89265197</t>
+  </si>
+  <si>
+    <t>12/07/2010</t>
+  </si>
+  <si>
+    <t>Good place but a little expensive (still cheaper than others in the area)</t>
+  </si>
+  <si>
+    <t>If you want a decent place in Northwest Houston, look no further. PROSGreat breakfast - Eggs, bagel, sausage, Yogurt, cereals, etc.Nice clean big rooms.Good showers. Complimentary toiletries and newspapersFree DSL (I wasn't able to connect my laptop. However, used their lobby desktop)GymSwim PoolCONSLittle expensive ($80 incl. taxes)</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r63439885-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>63439885</t>
+  </si>
+  <si>
+    <t>05/06/2010</t>
+  </si>
+  <si>
+    <t>A very nice hotel for the money!</t>
+  </si>
+  <si>
+    <t>We needed a hotel in the Copperfield area while visiting the grandkids.  The Windsor Suites has been recently renovated and the rooms are quite nice.  They also have free internet, as well as a very nice breakfast buffet including make it yourself waffles in the shape of Texas.  Restaurants are within walking distance.  For what we paid, the room was very large and very tastefully furnished.  I'd stay there again.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r12828339-Best_Western_Windsor_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1447,6 +2275,24 @@
   </si>
   <si>
     <t>Wife and I went to Houston to see friends.  Stayed 2 nights in late October.  The room was large, had a divider wall with a little tv viewing area.  TV was a little weird, only had 10 or so channels.  Bathroom was clean, grounds were fairly nice, and had lots of restaurants within walking distance.  Was close to the highway, so it was easy to get to.  Seemed a little far from major tourist attractions, but Houston is so spread out anyway.  It was close to a Wal-Mart and Lowes, which is fun to go to when you are married and away from your children.  Front desk was helpful when I needed directions.  Worked good for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107812-r3612196-Best_Western_Windsor_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3612196</t>
+  </si>
+  <si>
+    <t>06/25/2005</t>
+  </si>
+  <si>
+    <t>Nice attempt BUT...</t>
+  </si>
+  <si>
+    <t>Stayed here 06/24/05 - 06/26/05 - room #209.The rooms seem to be fairly nice with extras including microwave, fridge, high speed internet and lots of plugs at workstation desk in room, ceiling fan, separate sitting area in room. Hotel includes small exercise room and indoor/outdoor pool. Front desk staff is extremely helpful.Lots of restaurants in area and very close to FM 1960 / Sam Houston Tollway.Problems I encountered:Toilets clog very easily (saw toilet plunger outside a room), train track immediately across the street with trains that go by the hotel all hours of the day and night.Television had less than 10 channels and one of the channels provided could barely be heard.Summary:The area has many hotels and you could probably do better than the Best Western Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here 06/24/05 - 06/26/05 - room #209.The rooms seem to be fairly nice with extras including microwave, fridge, high speed internet and lots of plugs at workstation desk in room, ceiling fan, separate sitting area in room. Hotel includes small exercise room and indoor/outdoor pool. Front desk staff is extremely helpful.Lots of restaurants in area and very close to FM 1960 / Sam Houston Tollway.Problems I encountered:Toilets clog very easily (saw toilet plunger outside a room), train track immediately across the street with trains that go by the hotel all hours of the day and night.Television had less than 10 channels and one of the channels provided could barely be heard.Summary:The area has many hotels and you could probably do better than the Best Western Suites.More</t>
   </si>
 </sst>
 </file>
@@ -1981,7 +2827,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1991,10 +2837,16 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -2042,7 +2894,7 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
@@ -2051,32 +2903,28 @@
         <v>63</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -2092,50 +2940,50 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
       <c r="Y4" t="s">
         <v>71</v>
       </c>
@@ -2153,58 +3001,62 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>76</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>77</v>
       </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -2220,7 +3072,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2229,41 +3081,35 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2271,7 +3117,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -2287,7 +3133,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2296,37 +3142,37 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
         <v>87</v>
       </c>
-      <c r="K7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
@@ -2338,7 +3184,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -2354,7 +3200,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2363,35 +3209,41 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2399,7 +3251,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
@@ -2415,7 +3267,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2424,41 +3276,41 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2466,7 +3318,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -2482,7 +3334,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2491,50 +3343,28 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
-      <c r="Y10" t="s">
-        <v>107</v>
-      </c>
+      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2549,7 +3379,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2558,37 +3388,37 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
@@ -2600,7 +3430,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -2616,50 +3446,50 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
         <v>114</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>115</v>
-      </c>
-      <c r="J12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" t="s">
-        <v>117</v>
-      </c>
-      <c r="L12" t="s">
-        <v>118</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>119</v>
-      </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
         <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2667,7 +3497,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
@@ -2710,13 +3540,13 @@
         <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
         <v>4</v>
@@ -2726,19 +3556,15 @@
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>126</v>
-      </c>
-      <c r="X13" t="s">
-        <v>127</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -2754,42 +3580,40 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
         <v>129</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>130</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>131</v>
       </c>
-      <c r="K14" t="s">
+      <c r="O14" t="s">
         <v>132</v>
       </c>
-      <c r="L14" t="s">
-        <v>133</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>134</v>
-      </c>
-      <c r="O14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -2798,14 +3622,10 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>135</v>
-      </c>
-      <c r="X14" t="s">
-        <v>136</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -2821,7 +3641,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2830,53 +3650,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>143</v>
-      </c>
-      <c r="X15" t="s">
-        <v>144</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
@@ -2892,7 +3708,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2901,47 +3717,49 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
       <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>152</v>
-      </c>
-      <c r="X16" t="s">
-        <v>153</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
@@ -2957,7 +3775,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2966,53 +3784,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>161</v>
-      </c>
-      <c r="X17" t="s">
-        <v>162</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
@@ -3028,7 +3842,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3037,47 +3851,49 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>170</v>
-      </c>
-      <c r="X18" t="s">
-        <v>171</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
@@ -3093,7 +3909,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3102,16 +3918,16 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
@@ -3120,7 +3936,7 @@
         <v>160</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3129,7 +3945,7 @@
         <v>5</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3141,14 +3957,10 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>170</v>
-      </c>
-      <c r="X19" t="s">
-        <v>171</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20">
@@ -3164,7 +3976,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3173,37 +3985,37 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R20" t="n">
         <v>4</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
@@ -3212,14 +4024,10 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>184</v>
-      </c>
-      <c r="X20" t="s">
-        <v>185</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
@@ -3235,7 +4043,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3244,37 +4052,37 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="J21" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="O21" t="s">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -3284,13 +4092,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="X21" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="Y21" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22">
@@ -3306,7 +4114,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3315,53 +4123,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="X22" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="Y22" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23">
@@ -3377,7 +4181,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3386,49 +4190,45 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="J23" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="K23" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>190</v>
+      </c>
+      <c r="X23" t="s">
+        <v>191</v>
+      </c>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
@@ -3444,7 +4244,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3453,49 +4253,49 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="O24" t="s">
         <v>53</v>
       </c>
-      <c r="P24" t="n">
-        <v>2</v>
-      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>198</v>
+      </c>
+      <c r="X24" t="s">
+        <v>199</v>
+      </c>
       <c r="Y24" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
@@ -3511,7 +4311,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3520,43 +4320,53 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="J25" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
       <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>206</v>
+      </c>
+      <c r="X25" t="s">
+        <v>207</v>
+      </c>
       <c r="Y25" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26">
@@ -3572,7 +4382,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3581,49 +4391,47 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="K26" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="O26" t="s">
-        <v>97</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>215</v>
+      </c>
+      <c r="X26" t="s">
+        <v>216</v>
+      </c>
       <c r="Y26" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27">
@@ -3639,7 +4447,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3648,49 +4456,39 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
-      </c>
-      <c r="N27" t="s">
-        <v>232</v>
-      </c>
-      <c r="O27" t="s">
-        <v>63</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>3</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>223</v>
+      </c>
+      <c r="X27" t="s">
+        <v>224</v>
+      </c>
       <c r="Y27" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
@@ -3706,7 +4504,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3715,45 +4513,53 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J28" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>232</v>
+      </c>
+      <c r="X28" t="s">
+        <v>233</v>
+      </c>
       <c r="Y28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29">
@@ -3769,58 +4575,62 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>236</v>
+      </c>
+      <c r="J29" t="s">
+        <v>237</v>
+      </c>
+      <c r="K29" t="s">
         <v>238</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>239</v>
       </c>
-      <c r="J29" t="s">
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
         <v>240</v>
       </c>
-      <c r="K29" t="s">
-        <v>241</v>
-      </c>
-      <c r="L29" t="s">
-        <v>242</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2</v>
-      </c>
-      <c r="N29" t="s">
-        <v>243</v>
-      </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>241</v>
+      </c>
+      <c r="X29" t="s">
+        <v>242</v>
+      </c>
       <c r="Y29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30">
@@ -3860,7 +4670,7 @@
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="O30" t="s">
         <v>63</v>
@@ -3868,26 +4678,24 @@
       <c r="P30" t="n">
         <v>3</v>
       </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>250</v>
+      </c>
+      <c r="X30" t="s">
+        <v>251</v>
+      </c>
       <c r="Y30" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31">
@@ -3903,7 +4711,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3912,43 +4720,53 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J31" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K31" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L31" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O31" t="s">
-        <v>73</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
       <c r="S31" t="n">
         <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>250</v>
+      </c>
+      <c r="X31" t="s">
+        <v>251</v>
+      </c>
       <c r="Y31" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32">
@@ -3964,7 +4782,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3973,49 +4791,53 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="J32" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K32" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>264</v>
+      </c>
+      <c r="X32" t="s">
+        <v>265</v>
+      </c>
       <c r="Y32" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33">
@@ -4031,7 +4853,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4040,49 +4862,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="J33" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="K33" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L33" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="O33" t="s">
-        <v>73</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>272</v>
+      </c>
+      <c r="X33" t="s">
+        <v>273</v>
+      </c>
       <c r="Y33" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34">
@@ -4098,7 +4914,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4107,49 +4923,53 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="J34" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K34" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="O34" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
         <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>280</v>
+      </c>
+      <c r="X34" t="s">
+        <v>281</v>
+      </c>
       <c r="Y34" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35">
@@ -4165,7 +4985,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4174,43 +4994,53 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="J35" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="K35" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
       <c r="Q35" t="n">
-        <v>3</v>
-      </c>
-      <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>289</v>
+      </c>
+      <c r="X35" t="s">
+        <v>290</v>
+      </c>
       <c r="Y35" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36">
@@ -4226,7 +5056,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4235,30 +5065,34 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="J36" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K36" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="O36" t="s">
         <v>53</v>
       </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4270,10 +5104,14 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>296</v>
+      </c>
+      <c r="X36" t="s">
+        <v>297</v>
+      </c>
       <c r="Y36" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37">
@@ -4289,7 +5127,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4298,25 +5136,25 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="J37" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="K37" t="s">
-        <v>190</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O37" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4337,10 +5175,14 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>304</v>
+      </c>
+      <c r="X37" t="s">
+        <v>305</v>
+      </c>
       <c r="Y37" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38">
@@ -4356,7 +5198,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4365,29 +5207,35 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="J38" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="K38" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="L38" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
       <c r="S38" t="n">
         <v>5</v>
       </c>
@@ -4399,13 +5247,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="X38" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="Y38" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39">
@@ -4421,7 +5269,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4430,47 +5278,49 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="J39" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="K39" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="L39" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="O39" t="s">
-        <v>97</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
       <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>302</v>
-      </c>
-      <c r="X39" t="s">
-        <v>303</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40">
@@ -4486,7 +5336,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4495,53 +5345,49 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="J40" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="K40" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="L40" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="O40" t="s">
         <v>63</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>310</v>
-      </c>
-      <c r="X40" t="s">
-        <v>311</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41">
@@ -4557,7 +5403,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4566,33 +5412,31 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="J41" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="K41" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="O41" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
@@ -4601,14 +5445,10 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>319</v>
-      </c>
-      <c r="X41" t="s">
-        <v>320</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42">
@@ -4624,7 +5464,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4633,41 +5473,41 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="J42" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="K42" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="L42" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="O42" t="s">
         <v>63</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4675,7 +5515,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43">
@@ -4691,7 +5531,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4700,41 +5540,41 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="J43" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K43" t="s">
-        <v>331</v>
+        <v>112</v>
       </c>
       <c r="L43" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="O43" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4742,7 +5582,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44">
@@ -4758,7 +5598,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4767,32 +5607,38 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="J44" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="K44" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s">
+        <v>346</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
         <v>337</v>
       </c>
-      <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s">
-        <v>338</v>
-      </c>
       <c r="O44" t="s">
-        <v>73</v>
-      </c>
-      <c r="P44" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
       <c r="Q44" t="n">
         <v>5</v>
       </c>
-      <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
         <v>5</v>
@@ -4803,7 +5649,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45">
@@ -4819,7 +5665,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4828,37 +5674,37 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="J45" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="O45" t="s">
         <v>53</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
@@ -4870,7 +5716,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46">
@@ -4886,7 +5732,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4895,41 +5741,37 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="J46" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="K46" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="L46" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
-      </c>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4937,7 +5779,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47">
@@ -4953,7 +5795,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4962,38 +5804,34 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="J47" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="K47" t="s">
+        <v>361</v>
+      </c>
+      <c r="L47" t="s">
+        <v>362</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
         <v>352</v>
       </c>
-      <c r="L47" t="s">
-        <v>353</v>
-      </c>
-      <c r="M47" t="n">
-        <v>4</v>
-      </c>
-      <c r="N47" t="s">
-        <v>354</v>
-      </c>
       <c r="O47" t="s">
-        <v>63</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
         <v>4</v>
@@ -5004,7 +5842,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48">
@@ -5020,7 +5858,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5029,37 +5867,37 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="J48" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K48" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L48" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="O48" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
@@ -5071,7 +5909,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49">
@@ -5087,7 +5925,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5096,41 +5934,41 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="J49" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K49" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L49" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
         <v>2</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>3</v>
-      </c>
-      <c r="R49" t="n">
-        <v>3</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5138,7 +5976,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50">
@@ -5154,7 +5992,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5163,16 +6001,16 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="J50" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K50" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="L50" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
@@ -5184,10 +6022,10 @@
         <v>53</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R50" t="n">
         <v>3</v>
@@ -5205,7 +6043,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51">
@@ -5221,7 +6059,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5230,41 +6068,35 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J51" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K51" t="s">
-        <v>141</v>
+        <v>382</v>
       </c>
       <c r="L51" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N51" t="s">
         <v>373</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
       <c r="S51" t="n">
         <v>5</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5272,7 +6104,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52">
@@ -5288,7 +6120,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5297,39 +6129,43 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="J52" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="K52" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="L52" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="O52" t="s">
-        <v>193</v>
-      </c>
-      <c r="P52" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
       <c r="Q52" t="s"/>
       <c r="R52" t="s"/>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53">
@@ -5345,7 +6181,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5354,49 +6190,39 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="J53" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K53" t="s">
+        <v>394</v>
+      </c>
+      <c r="L53" t="s">
+        <v>395</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
         <v>389</v>
       </c>
-      <c r="L53" t="s">
-        <v>390</v>
-      </c>
-      <c r="M53" t="n">
-        <v>5</v>
-      </c>
-      <c r="N53" t="s">
-        <v>391</v>
-      </c>
       <c r="O53" t="s">
-        <v>63</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>5</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54">
@@ -5412,7 +6238,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5421,25 +6247,25 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J54" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K54" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L54" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5455,7 +6281,7 @@
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5463,7 +6289,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55">
@@ -5479,7 +6305,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5488,39 +6314,49 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="J55" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K55" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L55" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
-      </c>
-      <c r="P55" t="s"/>
-      <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
-      <c r="S55" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
       <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56">
@@ -5536,7 +6372,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5545,41 +6381,41 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="J56" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K56" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L56" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O56" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5587,7 +6423,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57">
@@ -5603,7 +6439,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5612,41 +6448,41 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="J57" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K57" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L57" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O57" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="P57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S57" t="n">
         <v>4</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -5654,7 +6490,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58">
@@ -5670,7 +6506,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5679,28 +6515,28 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J58" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K58" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L58" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="O58" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q58" t="n">
         <v>5</v>
@@ -5713,7 +6549,7 @@
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5721,7 +6557,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59">
@@ -5737,7 +6573,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5746,41 +6582,35 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="J59" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K59" t="s">
+        <v>427</v>
+      </c>
+      <c r="L59" t="s">
+        <v>428</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
         <v>423</v>
-      </c>
-      <c r="L59" t="s">
-        <v>424</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3</v>
-      </c>
-      <c r="N59" t="s">
-        <v>425</v>
       </c>
       <c r="O59" t="s">
         <v>63</v>
       </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
+      <c r="P59" t="s"/>
       <c r="Q59" t="n">
-        <v>2</v>
-      </c>
-      <c r="R59" t="n">
-        <v>4</v>
-      </c>
-      <c r="S59" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -5788,7 +6618,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60">
@@ -5804,7 +6634,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5813,41 +6643,37 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="J60" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K60" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L60" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="O60" t="s">
         <v>63</v>
       </c>
-      <c r="P60" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>1</v>
-      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
       <c r="R60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -5855,7 +6681,7 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61">
@@ -5871,7 +6697,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5880,37 +6706,41 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J61" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K61" t="s">
-        <v>436</v>
+        <v>286</v>
       </c>
       <c r="L61" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
-      </c>
-      <c r="N61" t="s"/>
-      <c r="O61" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>439</v>
+      </c>
+      <c r="O61" t="s">
+        <v>87</v>
+      </c>
       <c r="P61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -5934,46 +6764,50 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
+        <v>440</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>441</v>
+      </c>
+      <c r="J62" t="s">
+        <v>442</v>
+      </c>
+      <c r="K62" t="s">
+        <v>443</v>
+      </c>
+      <c r="L62" t="s">
+        <v>444</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
         <v>439</v>
       </c>
-      <c r="G62" t="s">
-        <v>46</v>
-      </c>
-      <c r="H62" t="s">
-        <v>47</v>
-      </c>
-      <c r="I62" t="s">
-        <v>440</v>
-      </c>
-      <c r="J62" t="s">
-        <v>441</v>
-      </c>
-      <c r="K62" t="s">
-        <v>442</v>
-      </c>
-      <c r="L62" t="s">
-        <v>443</v>
-      </c>
-      <c r="M62" t="n">
-        <v>4</v>
-      </c>
-      <c r="N62" t="s">
-        <v>444</v>
-      </c>
       <c r="O62" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="s"/>
-      <c r="R62" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
       <c r="S62" t="n">
         <v>4</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -5981,7 +6815,7 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63">
@@ -6009,34 +6843,38 @@
         <v>446</v>
       </c>
       <c r="J63" t="s">
+        <v>442</v>
+      </c>
+      <c r="K63" t="s">
         <v>447</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>448</v>
       </c>
-      <c r="L63" t="s">
-        <v>449</v>
-      </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="P63" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q63" t="s"/>
-      <c r="R63" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -6044,7 +6882,7 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64">
@@ -6060,54 +6898,56 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
+        <v>449</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>450</v>
+      </c>
+      <c r="J64" t="s">
         <v>451</v>
       </c>
-      <c r="G64" t="s">
-        <v>46</v>
-      </c>
-      <c r="H64" t="s">
-        <v>47</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="K64" t="s">
         <v>452</v>
       </c>
-      <c r="J64" t="s">
+      <c r="L64" t="s">
         <v>453</v>
       </c>
-      <c r="K64" t="s">
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
         <v>454</v>
       </c>
-      <c r="L64" t="s">
-        <v>455</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2</v>
-      </c>
-      <c r="N64" t="s"/>
-      <c r="O64" t="s"/>
-      <c r="P64" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>2</v>
-      </c>
-      <c r="R64" t="n">
-        <v>2</v>
-      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
       <c r="S64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>455</v>
+      </c>
+      <c r="X64" t="s">
+        <v>456</v>
+      </c>
       <c r="Y64" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65">
@@ -6123,7 +6963,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6132,49 +6972,47 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="J65" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K65" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L65" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="O65" t="s">
-        <v>97</v>
-      </c>
-      <c r="P65" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>4</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
       <c r="R65" t="n">
-        <v>4</v>
-      </c>
-      <c r="S65" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S65" t="s"/>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
+      <c r="W65" t="s">
+        <v>463</v>
+      </c>
+      <c r="X65" t="s">
+        <v>464</v>
+      </c>
       <c r="Y65" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66">
@@ -6190,7 +7028,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6199,28 +7037,28 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="J66" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="K66" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L66" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="O66" t="s">
         <v>53</v>
       </c>
       <c r="P66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
         <v>4</v>
@@ -6238,10 +7076,14 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
+      <c r="W66" t="s">
+        <v>471</v>
+      </c>
+      <c r="X66" t="s">
+        <v>472</v>
+      </c>
       <c r="Y66" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="67">
@@ -6257,7 +7099,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6266,43 +7108,3010 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="J67" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="K67" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="L67" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="M67" t="n">
-        <v>4</v>
-      </c>
-      <c r="N67" t="s"/>
-      <c r="O67" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>454</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
       <c r="P67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q67" t="n">
-        <v>4</v>
-      </c>
-      <c r="R67" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
       <c r="S67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
+      <c r="W67" t="s">
+        <v>479</v>
+      </c>
+      <c r="X67" t="s">
+        <v>480</v>
+      </c>
       <c r="Y67" t="s">
-        <v>474</v>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>482</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>483</v>
+      </c>
+      <c r="J68" t="s">
+        <v>484</v>
+      </c>
+      <c r="K68" t="s">
+        <v>485</v>
+      </c>
+      <c r="L68" t="s">
+        <v>486</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>487</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>488</v>
+      </c>
+      <c r="X68" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>491</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>492</v>
+      </c>
+      <c r="J69" t="s">
+        <v>493</v>
+      </c>
+      <c r="K69" t="s">
+        <v>494</v>
+      </c>
+      <c r="L69" t="s">
+        <v>495</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>496</v>
+      </c>
+      <c r="O69" t="s">
+        <v>87</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>497</v>
+      </c>
+      <c r="X69" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>500</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>501</v>
+      </c>
+      <c r="J70" t="s">
+        <v>502</v>
+      </c>
+      <c r="K70" t="s">
+        <v>503</v>
+      </c>
+      <c r="L70" t="s">
+        <v>504</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>505</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>506</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>507</v>
+      </c>
+      <c r="J71" t="s">
+        <v>508</v>
+      </c>
+      <c r="K71" t="s">
+        <v>509</v>
+      </c>
+      <c r="L71" t="s">
+        <v>510</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>505</v>
+      </c>
+      <c r="O71" t="s">
+        <v>87</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>511</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>512</v>
+      </c>
+      <c r="J72" t="s">
+        <v>513</v>
+      </c>
+      <c r="K72" t="s">
+        <v>514</v>
+      </c>
+      <c r="L72" t="s">
+        <v>515</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>516</v>
+      </c>
+      <c r="O72" t="s">
+        <v>63</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>517</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>518</v>
+      </c>
+      <c r="J73" t="s">
+        <v>519</v>
+      </c>
+      <c r="K73" t="s">
+        <v>520</v>
+      </c>
+      <c r="L73" t="s">
+        <v>521</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>516</v>
+      </c>
+      <c r="O73" t="s">
+        <v>87</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>522</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>523</v>
+      </c>
+      <c r="J74" t="s">
+        <v>524</v>
+      </c>
+      <c r="K74" t="s">
+        <v>525</v>
+      </c>
+      <c r="L74" t="s">
+        <v>526</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>527</v>
+      </c>
+      <c r="O74" t="s">
+        <v>87</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>528</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>529</v>
+      </c>
+      <c r="J75" t="s">
+        <v>524</v>
+      </c>
+      <c r="K75" t="s">
+        <v>530</v>
+      </c>
+      <c r="L75" t="s">
+        <v>531</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>527</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>532</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>533</v>
+      </c>
+      <c r="J76" t="s">
+        <v>534</v>
+      </c>
+      <c r="K76" t="s">
+        <v>535</v>
+      </c>
+      <c r="L76" t="s">
+        <v>536</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>537</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>538</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>539</v>
+      </c>
+      <c r="J77" t="s">
+        <v>540</v>
+      </c>
+      <c r="K77" t="s">
+        <v>541</v>
+      </c>
+      <c r="L77" t="s">
+        <v>542</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>543</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>544</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>545</v>
+      </c>
+      <c r="J78" t="s">
+        <v>546</v>
+      </c>
+      <c r="K78" t="s">
+        <v>547</v>
+      </c>
+      <c r="L78" t="s">
+        <v>548</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>543</v>
+      </c>
+      <c r="O78" t="s">
+        <v>63</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>549</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>550</v>
+      </c>
+      <c r="J79" t="s">
+        <v>551</v>
+      </c>
+      <c r="K79" t="s">
+        <v>552</v>
+      </c>
+      <c r="L79" t="s">
+        <v>553</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>554</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>555</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>556</v>
+      </c>
+      <c r="J80" t="s">
+        <v>557</v>
+      </c>
+      <c r="K80" t="s">
+        <v>558</v>
+      </c>
+      <c r="L80" t="s">
+        <v>559</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>560</v>
+      </c>
+      <c r="O80" t="s">
+        <v>87</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>561</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>562</v>
+      </c>
+      <c r="J81" t="s">
+        <v>563</v>
+      </c>
+      <c r="K81" t="s">
+        <v>564</v>
+      </c>
+      <c r="L81" t="s">
+        <v>565</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>566</v>
+      </c>
+      <c r="O81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>568</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>569</v>
+      </c>
+      <c r="J82" t="s">
+        <v>570</v>
+      </c>
+      <c r="K82" t="s">
+        <v>571</v>
+      </c>
+      <c r="L82" t="s">
+        <v>572</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>566</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>573</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>574</v>
+      </c>
+      <c r="J83" t="s">
+        <v>575</v>
+      </c>
+      <c r="K83" t="s">
+        <v>576</v>
+      </c>
+      <c r="L83" t="s">
+        <v>577</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>566</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>578</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>579</v>
+      </c>
+      <c r="J84" t="s">
+        <v>580</v>
+      </c>
+      <c r="K84" t="s">
+        <v>581</v>
+      </c>
+      <c r="L84" t="s">
+        <v>582</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>583</v>
+      </c>
+      <c r="O84" t="s">
+        <v>63</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>585</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>586</v>
+      </c>
+      <c r="J85" t="s">
+        <v>587</v>
+      </c>
+      <c r="K85" t="s">
+        <v>204</v>
+      </c>
+      <c r="L85" t="s">
+        <v>588</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>583</v>
+      </c>
+      <c r="O85" t="s">
+        <v>63</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>589</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>590</v>
+      </c>
+      <c r="J86" t="s">
+        <v>591</v>
+      </c>
+      <c r="K86" t="s">
+        <v>592</v>
+      </c>
+      <c r="L86" t="s">
+        <v>593</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>594</v>
+      </c>
+      <c r="O86" t="s">
+        <v>149</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>596</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>597</v>
+      </c>
+      <c r="J87" t="s">
+        <v>598</v>
+      </c>
+      <c r="K87" t="s">
+        <v>599</v>
+      </c>
+      <c r="L87" t="s">
+        <v>600</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>601</v>
+      </c>
+      <c r="O87" t="s">
+        <v>132</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>602</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>603</v>
+      </c>
+      <c r="J88" t="s">
+        <v>604</v>
+      </c>
+      <c r="K88" t="s">
+        <v>605</v>
+      </c>
+      <c r="L88" t="s">
+        <v>606</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>607</v>
+      </c>
+      <c r="O88" t="s">
+        <v>87</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>608</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>609</v>
+      </c>
+      <c r="J89" t="s">
+        <v>610</v>
+      </c>
+      <c r="K89" t="s">
+        <v>611</v>
+      </c>
+      <c r="L89" t="s">
+        <v>612</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>607</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>613</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>614</v>
+      </c>
+      <c r="J90" t="s">
+        <v>615</v>
+      </c>
+      <c r="K90" t="s">
+        <v>616</v>
+      </c>
+      <c r="L90" t="s">
+        <v>617</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>554</v>
+      </c>
+      <c r="O90" t="s">
+        <v>63</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>618</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>619</v>
+      </c>
+      <c r="J91" t="s">
+        <v>620</v>
+      </c>
+      <c r="K91" t="s">
+        <v>621</v>
+      </c>
+      <c r="L91" t="s">
+        <v>622</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>623</v>
+      </c>
+      <c r="O91" t="s">
+        <v>63</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>624</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>625</v>
+      </c>
+      <c r="J92" t="s">
+        <v>626</v>
+      </c>
+      <c r="K92" t="s">
+        <v>627</v>
+      </c>
+      <c r="L92" t="s">
+        <v>628</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>629</v>
+      </c>
+      <c r="O92" t="s">
+        <v>63</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>631</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>632</v>
+      </c>
+      <c r="J93" t="s">
+        <v>633</v>
+      </c>
+      <c r="K93" t="s">
+        <v>634</v>
+      </c>
+      <c r="L93" t="s">
+        <v>635</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>636</v>
+      </c>
+      <c r="O93" t="s">
+        <v>87</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>638</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>639</v>
+      </c>
+      <c r="J94" t="s">
+        <v>640</v>
+      </c>
+      <c r="K94" t="s">
+        <v>641</v>
+      </c>
+      <c r="L94" t="s">
+        <v>642</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>643</v>
+      </c>
+      <c r="O94" t="s">
+        <v>87</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>644</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>645</v>
+      </c>
+      <c r="J95" t="s">
+        <v>646</v>
+      </c>
+      <c r="K95" t="s">
+        <v>647</v>
+      </c>
+      <c r="L95" t="s">
+        <v>648</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>643</v>
+      </c>
+      <c r="O95" t="s">
+        <v>87</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>649</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>650</v>
+      </c>
+      <c r="J96" t="s">
+        <v>651</v>
+      </c>
+      <c r="K96" t="s">
+        <v>652</v>
+      </c>
+      <c r="L96" t="s">
+        <v>653</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>654</v>
+      </c>
+      <c r="O96" t="s">
+        <v>132</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>655</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>656</v>
+      </c>
+      <c r="J97" t="s">
+        <v>657</v>
+      </c>
+      <c r="K97" t="s"/>
+      <c r="L97" t="s"/>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>658</v>
+      </c>
+      <c r="O97" t="s">
+        <v>63</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>659</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>660</v>
+      </c>
+      <c r="J98" t="s">
+        <v>661</v>
+      </c>
+      <c r="K98" t="s">
+        <v>662</v>
+      </c>
+      <c r="L98" t="s">
+        <v>663</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>664</v>
+      </c>
+      <c r="O98" t="s">
+        <v>63</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>665</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>666</v>
+      </c>
+      <c r="J99" t="s">
+        <v>667</v>
+      </c>
+      <c r="K99" t="s">
+        <v>668</v>
+      </c>
+      <c r="L99" t="s">
+        <v>669</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>664</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>2</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>671</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>672</v>
+      </c>
+      <c r="J100" t="s">
+        <v>673</v>
+      </c>
+      <c r="K100" t="s">
+        <v>674</v>
+      </c>
+      <c r="L100" t="s">
+        <v>675</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="s">
+        <v>664</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>677</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>678</v>
+      </c>
+      <c r="J101" t="s">
+        <v>679</v>
+      </c>
+      <c r="K101" t="s">
+        <v>680</v>
+      </c>
+      <c r="L101" t="s">
+        <v>681</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>2</v>
+      </c>
+      <c r="R101" t="n">
+        <v>1</v>
+      </c>
+      <c r="S101" t="n">
+        <v>2</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>683</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>684</v>
+      </c>
+      <c r="J102" t="s">
+        <v>685</v>
+      </c>
+      <c r="K102" t="s">
+        <v>686</v>
+      </c>
+      <c r="L102" t="s">
+        <v>687</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>688</v>
+      </c>
+      <c r="O102" t="s">
+        <v>63</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>690</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>691</v>
+      </c>
+      <c r="J103" t="s">
+        <v>692</v>
+      </c>
+      <c r="K103" t="s">
+        <v>10</v>
+      </c>
+      <c r="L103" t="s">
+        <v>693</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>694</v>
+      </c>
+      <c r="O103" t="s">
+        <v>87</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>695</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>696</v>
+      </c>
+      <c r="J104" t="s">
+        <v>697</v>
+      </c>
+      <c r="K104" t="s">
+        <v>698</v>
+      </c>
+      <c r="L104" t="s">
+        <v>699</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>700</v>
+      </c>
+      <c r="O104" t="s">
+        <v>87</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>701</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>702</v>
+      </c>
+      <c r="J105" t="s">
+        <v>703</v>
+      </c>
+      <c r="K105" t="s">
+        <v>704</v>
+      </c>
+      <c r="L105" t="s">
+        <v>705</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
+        <v>700</v>
+      </c>
+      <c r="O105" t="s">
+        <v>63</v>
+      </c>
+      <c r="P105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="n">
+        <v>1</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>1</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>707</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>708</v>
+      </c>
+      <c r="J106" t="s">
+        <v>709</v>
+      </c>
+      <c r="K106" t="s">
+        <v>710</v>
+      </c>
+      <c r="L106" t="s">
+        <v>711</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>2</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>3</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>712</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>713</v>
+      </c>
+      <c r="J107" t="s">
+        <v>714</v>
+      </c>
+      <c r="K107" t="s">
+        <v>715</v>
+      </c>
+      <c r="L107" t="s">
+        <v>716</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>717</v>
+      </c>
+      <c r="O107" t="s">
+        <v>132</v>
+      </c>
+      <c r="P107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>718</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>719</v>
+      </c>
+      <c r="J108" t="s">
+        <v>720</v>
+      </c>
+      <c r="K108" t="s">
+        <v>721</v>
+      </c>
+      <c r="L108" t="s">
+        <v>722</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>723</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>724</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>725</v>
+      </c>
+      <c r="J109" t="s">
+        <v>726</v>
+      </c>
+      <c r="K109" t="s">
+        <v>727</v>
+      </c>
+      <c r="L109" t="s">
+        <v>728</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="s">
+        <v>729</v>
+      </c>
+      <c r="O109" t="s">
+        <v>132</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>3</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>730</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>731</v>
+      </c>
+      <c r="J110" t="s">
+        <v>732</v>
+      </c>
+      <c r="K110" t="s">
+        <v>733</v>
+      </c>
+      <c r="L110" t="s">
+        <v>734</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s">
+        <v>735</v>
+      </c>
+      <c r="O110" t="s">
+        <v>63</v>
+      </c>
+      <c r="P110" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>737</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>738</v>
+      </c>
+      <c r="J111" t="s">
+        <v>739</v>
+      </c>
+      <c r="K111" t="s">
+        <v>740</v>
+      </c>
+      <c r="L111" t="s">
+        <v>741</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s"/>
+      <c r="O111" t="s"/>
+      <c r="P111" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>4</v>
+      </c>
+      <c r="R111" t="s"/>
+      <c r="S111" t="n">
+        <v>4</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>3</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>34628</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>743</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>744</v>
+      </c>
+      <c r="J112" t="s">
+        <v>745</v>
+      </c>
+      <c r="K112" t="s">
+        <v>746</v>
+      </c>
+      <c r="L112" t="s">
+        <v>747</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2</v>
+      </c>
+      <c r="N112" t="s">
+        <v>735</v>
+      </c>
+      <c r="O112" t="s">
+        <v>63</v>
+      </c>
+      <c r="P112" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="s"/>
+      <c r="S112" t="n">
+        <v>3</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>4</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>748</v>
       </c>
     </row>
   </sheetData>
